--- a/output_reports/Аналоги_01.01-01.02.xlsx
+++ b/output_reports/Аналоги_01.01-01.02.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="basic_report" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Аналоги" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/output_reports/Аналоги_01.01-01.02.xlsx
+++ b/output_reports/Аналоги_01.01-01.02.xlsx
@@ -191,7 +191,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -244,6 +244,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -623,7 +624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V148"/>
+  <dimension ref="A1:V152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
@@ -897,13 +898,13 @@
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>478</v>
+        <v>560</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>0</v>
@@ -915,21 +916,19 @@
         <v>8</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R7" s="4" t="n">
         <v>3</v>
       </c>
       <c r="S7" s="5" t="inlineStr"/>
-      <c r="T7" s="6" t="n">
-        <v>187</v>
-      </c>
+      <c r="T7" s="6" t="n"/>
       <c r="U7" s="6" t="n"/>
       <c r="V7" s="4" t="n">
         <v>1</v>
@@ -1077,19 +1076,19 @@
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N10" s="4" t="n">
         <v>0</v>
@@ -1153,13 +1152,13 @@
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0</v>
@@ -1171,21 +1170,27 @@
         <v>3</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="S11" s="5" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="S11" s="5" t="inlineStr">
+        <is>
+          <t>15-17.02</t>
+        </is>
+      </c>
       <c r="T11" s="6" t="n"/>
       <c r="U11" s="6" t="n"/>
-      <c r="V11" s="4" t="n"/>
+      <c r="V11" s="4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
@@ -1405,10 +1410,10 @@
         </is>
       </c>
       <c r="I15" s="4" t="n">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="J15" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K15" s="4" t="n">
         <v>307</v>
@@ -1423,13 +1428,13 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>52</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R15" s="4" t="n">
         <v>0</v>
@@ -1486,7 +1491,7 @@
           <t>--</t>
         </is>
       </c>
-      <c r="E17" s="3" t="inlineStr">
+      <c r="E17" s="9" t="inlineStr">
         <is>
           <t>32321С Аналог LM (собств. разр.) Alpha Bio Internal D=4.2 L=12.5, нерж. сталь, V.1</t>
         </is>
@@ -1507,40 +1512,40 @@
         </is>
       </c>
       <c r="I17" s="4" t="n">
-        <v>410</v>
+        <v>352</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>183</v>
-      </c>
-      <c r="K17" s="4" t="n">
-        <v>84</v>
+        <v>241</v>
+      </c>
+      <c r="K17" s="10" t="n">
+        <v>54</v>
       </c>
       <c r="L17" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="M17" s="4" t="n">
-        <v>8</v>
+      <c r="M17" s="10" t="n">
+        <v>38</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="S17" s="5" t="inlineStr"/>
       <c r="T17" s="6" t="n"/>
       <c r="U17" s="6" t="n"/>
       <c r="V17" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1609,39 +1614,37 @@
         </is>
       </c>
       <c r="I19" s="4" t="n">
-        <v>1357</v>
+        <v>1681</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>956</v>
+        <v>1221</v>
       </c>
       <c r="L19" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M19" s="4" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="N19" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="S19" s="5" t="inlineStr"/>
-      <c r="T19" s="6" t="n">
-        <v>401</v>
-      </c>
+      <c r="T19" s="6" t="n"/>
       <c r="U19" s="6" t="n"/>
       <c r="V19" s="4" t="n">
         <v>2</v>
@@ -1889,10 +1892,10 @@
         </is>
       </c>
       <c r="I24" s="4" t="n">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="J24" s="4" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K24" s="12" t="n">
         <v>8</v>
@@ -1907,22 +1910,26 @@
         <v>20</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>90</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R24" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="S24" s="5" t="inlineStr"/>
+      <c r="S24" s="5" t="inlineStr">
+        <is>
+          <t>07-10.02</t>
+        </is>
+      </c>
       <c r="T24" s="6" t="n"/>
       <c r="U24" s="6" t="n"/>
       <c r="V24" s="4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -1991,10 +1998,10 @@
         </is>
       </c>
       <c r="I26" s="4" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J26" s="4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K26" s="4" t="n">
         <v>3</v>
@@ -2009,13 +2016,13 @@
         <v>3</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>21</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R26" s="4" t="n">
         <v>3</v>
@@ -2069,13 +2076,13 @@
         </is>
       </c>
       <c r="I27" s="4" t="n">
-        <v>665</v>
+        <v>587</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>141</v>
+        <v>222</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="L27" s="4" t="n">
         <v>0</v>
@@ -2087,13 +2094,13 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="R27" s="4" t="n">
         <v>41</v>
@@ -2147,31 +2154,31 @@
         </is>
       </c>
       <c r="I28" s="4" t="n">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="J28" s="4" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K28" s="4" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L28" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M28" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>68</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R28" s="4" t="n">
         <v>1</v>
@@ -2249,10 +2256,10 @@
         </is>
       </c>
       <c r="I30" s="4" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J30" s="4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K30" s="4" t="n">
         <v>3</v>
@@ -2267,23 +2274,25 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>44</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R30" s="4" t="n">
         <v>7</v>
       </c>
       <c r="S30" s="5" t="inlineStr">
         <is>
-          <t>01-03.02</t>
-        </is>
-      </c>
-      <c r="T30" s="6" t="n"/>
+          <t>07.02</t>
+        </is>
+      </c>
+      <c r="T30" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="U30" s="6" t="n"/>
       <c r="V30" s="4" t="n">
         <v>1</v>
@@ -2360,15 +2369,13 @@
       <c r="R31" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="S31" s="5" t="inlineStr">
-        <is>
-          <t>02-04.02</t>
-        </is>
-      </c>
-      <c r="T31" s="6" t="n"/>
+      <c r="S31" s="5" t="inlineStr"/>
+      <c r="T31" s="6" t="n">
+        <v>102</v>
+      </c>
       <c r="U31" s="6" t="n"/>
       <c r="V31" s="4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -2515,19 +2522,19 @@
         </is>
       </c>
       <c r="I34" s="4" t="n">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="J34" s="4" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K34" s="4" t="n">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="L34" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M34" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N34" s="4" t="n">
         <v>0</v>
@@ -2536,13 +2543,13 @@
         <v>375</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Q34" s="4" t="n">
         <v>4</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S34" s="5" t="inlineStr"/>
       <c r="T34" s="6" t="n"/>
@@ -2715,42 +2722,40 @@
         </is>
       </c>
       <c r="I38" s="4" t="n">
-        <v>394</v>
+        <v>339</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="N38" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>54</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R38" s="4" t="n">
         <v>2</v>
       </c>
       <c r="S38" s="5" t="inlineStr"/>
-      <c r="T38" s="6" t="n">
-        <v>10</v>
-      </c>
+      <c r="T38" s="6" t="n"/>
       <c r="U38" s="6" t="n"/>
       <c r="V38" s="4" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -2819,46 +2824,46 @@
         </is>
       </c>
       <c r="I40" s="4" t="n">
-        <v>2067</v>
+        <v>2937</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>780</v>
+        <v>1126</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>441</v>
+        <v>1236</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>1498</v>
+        <v>1614</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>442</v>
+        <v>626</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="S40" s="5" t="inlineStr">
         <is>
-          <t>31.01-03.02</t>
+          <t>07-09.02</t>
         </is>
       </c>
       <c r="T40" s="6" t="n">
-        <v>997</v>
+        <v>393</v>
       </c>
       <c r="U40" s="6" t="n"/>
       <c r="V40" s="4" t="n">
-        <v>166</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41">
@@ -2903,13 +2908,13 @@
         </is>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>793</v>
+        <v>657</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0</v>
@@ -2918,25 +2923,25 @@
         <v>25</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>520</v>
+        <v>622</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="S41" s="5" t="inlineStr"/>
       <c r="T41" s="6" t="n"/>
       <c r="U41" s="6" t="n"/>
       <c r="V41" s="4" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
@@ -3005,13 +3010,13 @@
         </is>
       </c>
       <c r="I43" s="4" t="n">
-        <v>961</v>
+        <v>833</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>321</v>
+        <v>399</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>508</v>
+        <v>334</v>
       </c>
       <c r="L43" s="4" t="n">
         <v>0</v>
@@ -3020,25 +3025,25 @@
         <v>20</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>229</v>
+        <v>295</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="S43" s="5" t="inlineStr"/>
       <c r="T43" s="6" t="n"/>
       <c r="U43" s="6" t="n"/>
       <c r="V43" s="4" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44">
@@ -3159,10 +3164,10 @@
         </is>
       </c>
       <c r="I45" s="19" t="n">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="J45" s="20" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="K45" s="4" t="n">
         <v>356</v>
@@ -3177,13 +3182,13 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>52</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="R45" s="4" t="n">
         <v>0</v>
@@ -3192,7 +3197,7 @@
       <c r="T45" s="6" t="n"/>
       <c r="U45" s="6" t="n"/>
       <c r="V45" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -3361,42 +3366,40 @@
         </is>
       </c>
       <c r="I49" s="4" t="n">
-        <v>459</v>
+        <v>885</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>385</v>
+        <v>552</v>
       </c>
       <c r="L49" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N49" s="4" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>60</v>
+        <v>278</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="S49" s="5" t="inlineStr"/>
-      <c r="T49" s="6" t="n">
-        <v>477</v>
-      </c>
+      <c r="T49" s="6" t="n"/>
       <c r="U49" s="6" t="n"/>
       <c r="V49" s="4" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50">
@@ -3444,7 +3447,7 @@
           <t>--</t>
         </is>
       </c>
-      <c r="E51" s="3" t="inlineStr">
+      <c r="E51" s="9" t="inlineStr">
         <is>
           <t>32336С Аналог LM (собств. разр.) MegaGen AnyRidge D=4 L=12.5, нерж. сталь, V.1</t>
         </is>
@@ -3465,40 +3468,40 @@
         </is>
       </c>
       <c r="I51" s="4" t="n">
-        <v>712</v>
+        <v>572</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>126</v>
-      </c>
-      <c r="K51" s="4" t="n">
-        <v>239</v>
+        <v>226</v>
+      </c>
+      <c r="K51" s="10" t="n">
+        <v>77</v>
       </c>
       <c r="L51" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="M51" s="4" t="n">
-        <v>56</v>
+      <c r="M51" s="10" t="n">
+        <v>58</v>
       </c>
       <c r="N51" s="4" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="P51" s="4" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S51" s="5" t="inlineStr"/>
       <c r="T51" s="6" t="n"/>
       <c r="U51" s="6" t="n"/>
       <c r="V51" s="4" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52">
@@ -3643,10 +3646,10 @@
         </is>
       </c>
       <c r="I54" s="19" t="n">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="J54" s="20" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="K54" s="4" t="n">
         <v>206</v>
@@ -3661,13 +3664,13 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>53</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="R54" s="4" t="n">
         <v>0</v>
@@ -3676,7 +3679,7 @@
       <c r="T54" s="6" t="n"/>
       <c r="U54" s="6" t="n"/>
       <c r="V54" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -3797,39 +3800,37 @@
         </is>
       </c>
       <c r="I56" s="19" t="n">
-        <v>299</v>
+        <v>763</v>
       </c>
       <c r="J56" s="20" t="n">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="K56" s="4" t="n">
-        <v>92</v>
+        <v>457</v>
       </c>
       <c r="L56" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M56" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N56" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>147</v>
+        <v>263</v>
       </c>
       <c r="P56" s="4" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q56" s="4" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="R56" s="4" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="S56" s="5" t="inlineStr"/>
-      <c r="T56" s="6" t="n">
-        <v>642</v>
-      </c>
+      <c r="T56" s="6" t="n"/>
       <c r="U56" s="6" t="n"/>
       <c r="V56" s="4" t="n">
         <v>58</v>
@@ -3877,16 +3878,16 @@
         </is>
       </c>
       <c r="I57" s="15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J57" s="16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K57" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L57" s="4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M57" s="4" t="n">
         <v>0</v>
@@ -3904,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="R57" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S57" s="5" t="inlineStr"/>
       <c r="T57" s="6" t="n"/>
@@ -3953,13 +3954,13 @@
         </is>
       </c>
       <c r="I58" s="19" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J58" s="20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K58" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L58" s="4" t="n">
         <v>0</v>
@@ -3971,13 +3972,13 @@
         <v>0</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P58" s="4" t="n">
         <v>57</v>
       </c>
       <c r="Q58" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R58" s="4" t="n">
         <v>0</v>
@@ -4055,10 +4056,10 @@
         </is>
       </c>
       <c r="I60" s="15" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J60" s="16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K60" s="4" t="n">
         <v>0</v>
@@ -4076,13 +4077,13 @@
         <v>0</v>
       </c>
       <c r="P60" s="4" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q60" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S60" s="5" t="inlineStr"/>
       <c r="T60" s="6" t="n"/>
@@ -4131,10 +4132,10 @@
         </is>
       </c>
       <c r="I61" s="19" t="n">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="J61" s="20" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K61" s="4" t="n">
         <v>5</v>
@@ -4149,26 +4150,24 @@
         <v>0</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="P61" s="4" t="n">
         <v>60</v>
       </c>
       <c r="Q61" s="4" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="R61" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="S61" s="5" t="inlineStr">
-        <is>
-          <t>03-05.02</t>
-        </is>
-      </c>
-      <c r="T61" s="6" t="n"/>
+      <c r="S61" s="5" t="inlineStr"/>
+      <c r="T61" s="6" t="n">
+        <v>75</v>
+      </c>
       <c r="U61" s="6" t="n"/>
       <c r="V61" s="4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62">
@@ -4213,10 +4212,10 @@
         </is>
       </c>
       <c r="I62" s="4" t="n">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="J62" s="4" t="n">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="K62" s="12" t="n">
         <v>5</v>
@@ -4228,29 +4227,27 @@
         <v>20</v>
       </c>
       <c r="N62" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="P62" s="4" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="Q62" s="4" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="R62" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="S62" s="5" t="inlineStr">
-        <is>
-          <t>31.01-02.02</t>
-        </is>
-      </c>
-      <c r="T62" s="6" t="n"/>
+        <v>16</v>
+      </c>
+      <c r="S62" s="5" t="inlineStr"/>
+      <c r="T62" s="6" t="n">
+        <v>495</v>
+      </c>
       <c r="U62" s="6" t="n"/>
       <c r="V62" s="4" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63">
@@ -4371,13 +4368,13 @@
         </is>
       </c>
       <c r="I64" s="19" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J64" s="20" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K64" s="4" t="n">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="L64" s="4" t="n">
         <v>0</v>
@@ -4389,13 +4386,13 @@
         <v>0</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="P64" s="4" t="n">
         <v>57</v>
       </c>
       <c r="Q64" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R64" s="4" t="n">
         <v>3</v>
@@ -4442,17 +4439,17 @@
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>Neodent Grand Morse</t>
+          <t>NeoBiotech</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
         <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E66" s="3" t="inlineStr">
-        <is>
-          <t>32499С Аналог LM (собств. разр.) Neodent Grand Morse D=4 L=12.5, нерж. сталь, V.1</t>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="E66" s="21" t="inlineStr">
+        <is>
+          <t>32500С Аналог LM (собств. разр.) NeoBiotech 3.8 D=3.8 L=12.5, нерж. сталь, V.1</t>
         </is>
       </c>
       <c r="F66" s="3" t="inlineStr">
@@ -4470,146 +4467,148 @@
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I66" s="4" t="n">
-        <v>352</v>
-      </c>
-      <c r="J66" s="4" t="n">
-        <v>162</v>
+      <c r="I66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="K66" s="4" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="L66" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M66" s="4" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="N66" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="P66" s="4" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="4" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="R66" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="S66" s="5" t="inlineStr"/>
-      <c r="T66" s="6" t="n">
-        <v>869</v>
-      </c>
+      <c r="S66" s="5" t="inlineStr">
+        <is>
+          <t>13-15.02</t>
+        </is>
+      </c>
+      <c r="T66" s="6" t="n"/>
       <c r="U66" s="6" t="n"/>
-      <c r="V66" s="4" t="n">
-        <v>22</v>
-      </c>
+      <c r="V66" s="4" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="7" t="n"/>
-      <c r="B67" s="7" t="n"/>
-      <c r="C67" s="7" t="n"/>
-      <c r="D67" s="7" t="n"/>
-      <c r="E67" s="7" t="n"/>
-      <c r="F67" s="7" t="n"/>
-      <c r="G67" s="7" t="n"/>
-      <c r="H67" s="7" t="n"/>
-      <c r="I67" s="7" t="n"/>
-      <c r="J67" s="7" t="n"/>
-      <c r="K67" s="7" t="n"/>
-      <c r="L67" s="7" t="n"/>
-      <c r="M67" s="7" t="n"/>
-      <c r="N67" s="7" t="n"/>
-      <c r="O67" s="7" t="n"/>
-      <c r="P67" s="7" t="n"/>
-      <c r="Q67" s="7" t="n"/>
-      <c r="R67" s="7" t="n"/>
-      <c r="S67" s="7" t="n"/>
-      <c r="T67" s="8" t="n"/>
-      <c r="U67" s="8" t="n"/>
-      <c r="V67" s="7" t="n"/>
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>Аналог</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>Разработка Lenmiriot</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>NeoBiotech</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="E67" s="21" t="inlineStr">
+        <is>
+          <t>32501С Аналог LM (собств. разр.) NeoBiotech 4.3 D=4.3 L=12.5, нерж. сталь, V.1</t>
+        </is>
+      </c>
+      <c r="F67" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G67" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H67" s="3" t="inlineStr">
+        <is>
+          <t>Версия 1</t>
+        </is>
+      </c>
+      <c r="I67" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" s="5" t="inlineStr">
+        <is>
+          <t>10-12.02</t>
+        </is>
+      </c>
+      <c r="T67" s="6" t="n"/>
+      <c r="U67" s="6" t="n"/>
+      <c r="V67" s="4" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="inlineStr">
-        <is>
-          <t>Аналог</t>
-        </is>
-      </c>
-      <c r="B68" s="3" t="inlineStr">
-        <is>
-          <t>Разработка Lenmiriot</t>
-        </is>
-      </c>
-      <c r="C68" s="3" t="inlineStr">
-        <is>
-          <t>Niko</t>
-        </is>
-      </c>
-      <c r="D68" s="3" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
-      <c r="E68" s="3" t="inlineStr">
-        <is>
-          <t>32333С Аналог LM (собств. разр.) Niko 3.5 D=3.5 L=12.5, нерж. сталь, V.1</t>
-        </is>
-      </c>
-      <c r="F68" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G68" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H68" s="3" t="inlineStr">
-        <is>
-          <t>Версия 1</t>
-        </is>
-      </c>
-      <c r="I68" s="4" t="n">
-        <v>281</v>
-      </c>
-      <c r="J68" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="K68" s="4" t="n">
-        <v>76</v>
-      </c>
-      <c r="L68" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O68" s="4" t="n">
-        <v>145</v>
-      </c>
-      <c r="P68" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q68" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="R68" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S68" s="5" t="inlineStr"/>
-      <c r="T68" s="6" t="n"/>
-      <c r="U68" s="6" t="n"/>
-      <c r="V68" s="4" t="n">
-        <v>8</v>
-      </c>
+      <c r="A68" s="7" t="n"/>
+      <c r="B68" s="7" t="n"/>
+      <c r="C68" s="7" t="n"/>
+      <c r="D68" s="7" t="n"/>
+      <c r="E68" s="7" t="n"/>
+      <c r="F68" s="7" t="n"/>
+      <c r="G68" s="7" t="n"/>
+      <c r="H68" s="7" t="n"/>
+      <c r="I68" s="7" t="n"/>
+      <c r="J68" s="7" t="n"/>
+      <c r="K68" s="7" t="n"/>
+      <c r="L68" s="7" t="n"/>
+      <c r="M68" s="7" t="n"/>
+      <c r="N68" s="7" t="n"/>
+      <c r="O68" s="7" t="n"/>
+      <c r="P68" s="7" t="n"/>
+      <c r="Q68" s="7" t="n"/>
+      <c r="R68" s="7" t="n"/>
+      <c r="S68" s="7" t="n"/>
+      <c r="T68" s="8" t="n"/>
+      <c r="U68" s="8" t="n"/>
+      <c r="V68" s="7" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
@@ -4619,175 +4618,179 @@
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>Аналог оригинала</t>
+          <t>Разработка Lenmiriot</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
+          <t>Neodent Grand Morse</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E69" s="3" t="inlineStr">
+        <is>
+          <t>32499С Аналог LM (собств. разр.) Neodent Grand Morse D=4 L=12.5, нерж. сталь, V.1</t>
+        </is>
+      </c>
+      <c r="F69" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G69" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H69" s="3" t="inlineStr">
+        <is>
+          <t>Версия 1</t>
+        </is>
+      </c>
+      <c r="I69" s="4" t="n">
+        <v>1170</v>
+      </c>
+      <c r="J69" s="4" t="n">
+        <v>260</v>
+      </c>
+      <c r="K69" s="4" t="n">
+        <v>887</v>
+      </c>
+      <c r="L69" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" s="4" t="n">
+        <v>102</v>
+      </c>
+      <c r="N69" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="O69" s="4" t="n">
+        <v>256</v>
+      </c>
+      <c r="P69" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q69" s="4" t="n">
+        <v>104</v>
+      </c>
+      <c r="R69" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" s="5" t="inlineStr"/>
+      <c r="T69" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="U69" s="6" t="n"/>
+      <c r="V69" s="4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="7" t="n"/>
+      <c r="B70" s="7" t="n"/>
+      <c r="C70" s="7" t="n"/>
+      <c r="D70" s="7" t="n"/>
+      <c r="E70" s="7" t="n"/>
+      <c r="F70" s="7" t="n"/>
+      <c r="G70" s="7" t="n"/>
+      <c r="H70" s="7" t="n"/>
+      <c r="I70" s="7" t="n"/>
+      <c r="J70" s="7" t="n"/>
+      <c r="K70" s="7" t="n"/>
+      <c r="L70" s="7" t="n"/>
+      <c r="M70" s="7" t="n"/>
+      <c r="N70" s="7" t="n"/>
+      <c r="O70" s="7" t="n"/>
+      <c r="P70" s="7" t="n"/>
+      <c r="Q70" s="7" t="n"/>
+      <c r="R70" s="7" t="n"/>
+      <c r="S70" s="7" t="n"/>
+      <c r="T70" s="8" t="n"/>
+      <c r="U70" s="8" t="n"/>
+      <c r="V70" s="7" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>Аналог</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>Разработка Lenmiriot</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
           <t>Niko</t>
         </is>
       </c>
-      <c r="D69" s="3" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="E69" s="13" t="inlineStr">
-        <is>
-          <t>32025С Аналог LM (копия оригинала) Niko 4.5 D=4.5 L=13 (арт. 5.205), нерж. сталь, V.1</t>
-        </is>
-      </c>
-      <c r="F69" s="14" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G69" s="14" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H69" s="14" t="inlineStr">
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="E71" s="3" t="inlineStr">
+        <is>
+          <t>32333С Аналог LM (собств. разр.) Niko 3.5 D=3.5 L=12.5, нерж. сталь, V.1</t>
+        </is>
+      </c>
+      <c r="F71" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G71" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H71" s="3" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I69" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="J69" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O69" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P69" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q69" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R69" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S69" s="5" t="inlineStr"/>
-      <c r="T69" s="6" t="n"/>
-      <c r="U69" s="6" t="n"/>
-      <c r="V69" s="4" t="n"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="3" t="inlineStr">
-        <is>
-          <t>Аналог</t>
-        </is>
-      </c>
-      <c r="B70" s="3" t="inlineStr">
-        <is>
-          <t>Разработка Lenmiriot</t>
-        </is>
-      </c>
-      <c r="C70" s="3" t="inlineStr">
-        <is>
-          <t>Niko</t>
-        </is>
-      </c>
-      <c r="D70" s="3" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="E70" s="17" t="inlineStr">
-        <is>
-          <t>32334С Аналог LM (собств. разр.) Niko 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
-        </is>
-      </c>
-      <c r="F70" s="18" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G70" s="18" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H70" s="18" t="inlineStr">
-        <is>
-          <t>Версия 1</t>
-        </is>
-      </c>
-      <c r="I70" s="19" t="n">
-        <v>80</v>
-      </c>
-      <c r="J70" s="20" t="n">
-        <v>7</v>
-      </c>
-      <c r="K70" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="L70" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N70" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O70" s="4" t="n">
-        <v>47</v>
-      </c>
-      <c r="P70" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q70" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="R70" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S70" s="5" t="inlineStr"/>
-      <c r="T70" s="6" t="n"/>
-      <c r="U70" s="6" t="n"/>
-      <c r="V70" s="4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="7" t="n"/>
-      <c r="B71" s="7" t="n"/>
-      <c r="C71" s="7" t="n"/>
-      <c r="D71" s="7" t="n"/>
-      <c r="E71" s="7" t="n"/>
-      <c r="F71" s="7" t="n"/>
-      <c r="G71" s="7" t="n"/>
-      <c r="H71" s="7" t="n"/>
-      <c r="I71" s="7" t="n"/>
-      <c r="J71" s="7" t="n"/>
-      <c r="K71" s="7" t="n"/>
-      <c r="L71" s="7" t="n"/>
-      <c r="M71" s="7" t="n"/>
-      <c r="N71" s="7" t="n"/>
-      <c r="O71" s="7" t="n"/>
-      <c r="P71" s="7" t="n"/>
-      <c r="Q71" s="7" t="n"/>
-      <c r="R71" s="7" t="n"/>
-      <c r="S71" s="7" t="n"/>
-      <c r="T71" s="8" t="n"/>
-      <c r="U71" s="8" t="n"/>
-      <c r="V71" s="7" t="n"/>
+      <c r="I71" s="4" t="n">
+        <v>221</v>
+      </c>
+      <c r="J71" s="4" t="n">
+        <v>83</v>
+      </c>
+      <c r="K71" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="L71" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" s="4" t="n">
+        <v>57</v>
+      </c>
+      <c r="O71" s="4" t="n">
+        <v>145</v>
+      </c>
+      <c r="P71" s="4" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q71" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="R71" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" s="5" t="inlineStr"/>
+      <c r="T71" s="6" t="n"/>
+      <c r="U71" s="6" t="n"/>
+      <c r="V71" s="4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
@@ -4802,17 +4805,17 @@
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>Nobel Active</t>
+          <t>Niko</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
         <is>
-          <t>NP</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E72" s="13" t="inlineStr">
         <is>
-          <t>32004С Аналог LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=3.55 L=10 (арт. 36697), нерж. сталь, V.1</t>
+          <t>32025С Аналог LM (копия оригинала) Niko 4.5 D=4.5 L=13 (арт. 5.205), нерж. сталь, V.1</t>
         </is>
       </c>
       <c r="F72" s="14" t="inlineStr">
@@ -4831,7 +4834,7 @@
         </is>
       </c>
       <c r="I72" s="15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J72" s="16" t="n">
         <v>0</v>
@@ -4852,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="P72" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q72" s="4" t="n">
         <v>0</v>
@@ -4863,9 +4866,7 @@
       <c r="S72" s="5" t="inlineStr"/>
       <c r="T72" s="6" t="n"/>
       <c r="U72" s="6" t="n"/>
-      <c r="V72" s="4" t="n">
-        <v>3</v>
-      </c>
+      <c r="V72" s="4" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
@@ -4880,17 +4881,17 @@
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>Nobel Active</t>
+          <t>Niko</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
         <is>
-          <t>NP</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E73" s="17" t="inlineStr">
         <is>
-          <t>32314С Аналог LM (собств. разр.) Nobel Active NP (3.5) D=3.5 L=12.5, нерж. сталь, V.1</t>
+          <t>32334С Аналог LM (собств. разр.) Niko 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
         </is>
       </c>
       <c r="F73" s="18" t="inlineStr">
@@ -4909,145 +4910,143 @@
         </is>
       </c>
       <c r="I73" s="19" t="n">
-        <v>430</v>
+        <v>67</v>
       </c>
       <c r="J73" s="20" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="K73" s="4" t="n">
-        <v>326</v>
+        <v>11</v>
       </c>
       <c r="L73" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M73" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N73" s="4" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="O73" s="4" t="n">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="P73" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q73" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="R73" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="Q73" s="4" t="n">
-        <v>35</v>
-      </c>
-      <c r="R73" s="4" t="n">
-        <v>15</v>
-      </c>
       <c r="S73" s="5" t="inlineStr"/>
-      <c r="T73" s="6" t="n">
-        <v>13</v>
-      </c>
+      <c r="T73" s="6" t="n"/>
       <c r="U73" s="6" t="n"/>
       <c r="V73" s="4" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="inlineStr">
+      <c r="A74" s="7" t="n"/>
+      <c r="B74" s="7" t="n"/>
+      <c r="C74" s="7" t="n"/>
+      <c r="D74" s="7" t="n"/>
+      <c r="E74" s="7" t="n"/>
+      <c r="F74" s="7" t="n"/>
+      <c r="G74" s="7" t="n"/>
+      <c r="H74" s="7" t="n"/>
+      <c r="I74" s="7" t="n"/>
+      <c r="J74" s="7" t="n"/>
+      <c r="K74" s="7" t="n"/>
+      <c r="L74" s="7" t="n"/>
+      <c r="M74" s="7" t="n"/>
+      <c r="N74" s="7" t="n"/>
+      <c r="O74" s="7" t="n"/>
+      <c r="P74" s="7" t="n"/>
+      <c r="Q74" s="7" t="n"/>
+      <c r="R74" s="7" t="n"/>
+      <c r="S74" s="7" t="n"/>
+      <c r="T74" s="8" t="n"/>
+      <c r="U74" s="8" t="n"/>
+      <c r="V74" s="7" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="inlineStr">
         <is>
           <t>Аналог</t>
         </is>
       </c>
-      <c r="B74" s="3" t="inlineStr">
-        <is>
-          <t>Разработка Lenmiriot</t>
-        </is>
-      </c>
-      <c r="C74" s="3" t="inlineStr">
+      <c r="B75" s="3" t="inlineStr">
+        <is>
+          <t>Аналог оригинала</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="inlineStr">
         <is>
           <t>Nobel Active</t>
         </is>
       </c>
-      <c r="D74" s="3" t="inlineStr">
-        <is>
-          <t>RP</t>
-        </is>
-      </c>
-      <c r="E74" s="3" t="inlineStr">
-        <is>
-          <t>32315С Аналог LM (собств. разр.) Nobel Active RP (4.5) D=4 L=12.5, нерж. сталь, V.1</t>
-        </is>
-      </c>
-      <c r="F74" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G74" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H74" s="3" t="inlineStr">
+      <c r="D75" s="3" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
+      <c r="E75" s="13" t="inlineStr">
+        <is>
+          <t>32004С Аналог LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=3.55 L=10 (арт. 36697), нерж. сталь, V.1</t>
+        </is>
+      </c>
+      <c r="F75" s="14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G75" s="14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H75" s="14" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I74" s="4" t="n">
-        <v>699</v>
-      </c>
-      <c r="J74" s="4" t="n">
-        <v>96</v>
-      </c>
-      <c r="K74" s="4" t="n">
-        <v>356</v>
-      </c>
-      <c r="L74" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="O74" s="4" t="n">
-        <v>305</v>
-      </c>
-      <c r="P74" s="4" t="n">
-        <v>38</v>
-      </c>
-      <c r="Q74" s="4" t="n">
-        <v>45</v>
-      </c>
-      <c r="R74" s="4" t="n">
-        <v>28</v>
-      </c>
-      <c r="S74" s="5" t="inlineStr"/>
-      <c r="T74" s="6" t="n"/>
-      <c r="U74" s="6" t="n"/>
-      <c r="V74" s="4" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="7" t="n"/>
-      <c r="B75" s="7" t="n"/>
-      <c r="C75" s="7" t="n"/>
-      <c r="D75" s="7" t="n"/>
-      <c r="E75" s="7" t="n"/>
-      <c r="F75" s="7" t="n"/>
-      <c r="G75" s="7" t="n"/>
-      <c r="H75" s="7" t="n"/>
-      <c r="I75" s="7" t="n"/>
-      <c r="J75" s="7" t="n"/>
-      <c r="K75" s="7" t="n"/>
-      <c r="L75" s="7" t="n"/>
-      <c r="M75" s="7" t="n"/>
-      <c r="N75" s="7" t="n"/>
-      <c r="O75" s="7" t="n"/>
-      <c r="P75" s="7" t="n"/>
-      <c r="Q75" s="7" t="n"/>
-      <c r="R75" s="7" t="n"/>
-      <c r="S75" s="7" t="n"/>
-      <c r="T75" s="8" t="n"/>
-      <c r="U75" s="8" t="n"/>
-      <c r="V75" s="7" t="n"/>
+      <c r="I75" s="15" t="n">
+        <v>9</v>
+      </c>
+      <c r="J75" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q75" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" s="5" t="inlineStr"/>
+      <c r="T75" s="6" t="n"/>
+      <c r="U75" s="6" t="n"/>
+      <c r="V75" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
@@ -5062,176 +5061,172 @@
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>Nobel Multi-Unit</t>
+          <t>Nobel Active</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
         <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E76" s="21" t="inlineStr">
-        <is>
-          <t>32420С Аналог LM (собств. разр.) Nobel Multi-Unit, LENMIRIOT Multi-Unit D=4.8 L=14.7, нерж. сталь, V.1</t>
-        </is>
-      </c>
-      <c r="F76" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G76" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H76" s="3" t="inlineStr">
+          <t>NP</t>
+        </is>
+      </c>
+      <c r="E76" s="17" t="inlineStr">
+        <is>
+          <t>32314С Аналог LM (собств. разр.) Nobel Active NP (3.5) D=3.5 L=12.5, нерж. сталь, V.1</t>
+        </is>
+      </c>
+      <c r="F76" s="18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G76" s="18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H76" s="18" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I76" s="22" t="n">
-        <v>322</v>
-      </c>
-      <c r="J76" s="22" t="n">
-        <v>349</v>
+      <c r="I76" s="19" t="n">
+        <v>347</v>
+      </c>
+      <c r="J76" s="20" t="n">
+        <v>111</v>
       </c>
       <c r="K76" s="4" t="n">
-        <v>3</v>
+        <v>189</v>
       </c>
       <c r="L76" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M76" s="4" t="n">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="N76" s="4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O76" s="4" t="n">
-        <v>223</v>
+        <v>146</v>
       </c>
       <c r="P76" s="4" t="n">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="Q76" s="4" t="n">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="R76" s="4" t="n">
-        <v>187</v>
-      </c>
-      <c r="S76" s="5" t="inlineStr">
-        <is>
-          <t>31.01</t>
-        </is>
-      </c>
-      <c r="T76" s="6" t="n">
-        <v>671</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="S76" s="5" t="inlineStr"/>
+      <c r="T76" s="6" t="n"/>
       <c r="U76" s="6" t="n"/>
       <c r="V76" s="4" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="7" t="n"/>
-      <c r="B77" s="7" t="n"/>
-      <c r="C77" s="7" t="n"/>
-      <c r="D77" s="7" t="n"/>
-      <c r="E77" s="7" t="n"/>
-      <c r="F77" s="7" t="n"/>
-      <c r="G77" s="7" t="n"/>
-      <c r="H77" s="7" t="n"/>
-      <c r="I77" s="7" t="n"/>
-      <c r="J77" s="7" t="n"/>
-      <c r="K77" s="7" t="n"/>
-      <c r="L77" s="7" t="n"/>
-      <c r="M77" s="7" t="n"/>
-      <c r="N77" s="7" t="n"/>
-      <c r="O77" s="7" t="n"/>
-      <c r="P77" s="7" t="n"/>
-      <c r="Q77" s="7" t="n"/>
-      <c r="R77" s="7" t="n"/>
-      <c r="S77" s="7" t="n"/>
-      <c r="T77" s="8" t="n"/>
-      <c r="U77" s="8" t="n"/>
-      <c r="V77" s="7" t="n"/>
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>Аналог</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>Разработка Lenmiriot</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>Nobel Active</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="inlineStr">
+        <is>
+          <t>RP</t>
+        </is>
+      </c>
+      <c r="E77" s="3" t="inlineStr">
+        <is>
+          <t>32315С Аналог LM (собств. разр.) Nobel Active RP (4.5) D=4 L=12.5, нерж. сталь, V.1</t>
+        </is>
+      </c>
+      <c r="F77" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G77" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H77" s="3" t="inlineStr">
+        <is>
+          <t>Версия 1</t>
+        </is>
+      </c>
+      <c r="I77" s="4" t="n">
+        <v>652</v>
+      </c>
+      <c r="J77" s="4" t="n">
+        <v>163</v>
+      </c>
+      <c r="K77" s="4" t="n">
+        <v>341</v>
+      </c>
+      <c r="L77" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="N77" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="O77" s="4" t="n">
+        <v>272</v>
+      </c>
+      <c r="P77" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q77" s="4" t="n">
+        <v>78</v>
+      </c>
+      <c r="R77" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="S77" s="5" t="inlineStr"/>
+      <c r="T77" s="6" t="n"/>
+      <c r="U77" s="6" t="n"/>
+      <c r="V77" s="4" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="inlineStr">
-        <is>
-          <t>Аналог</t>
-        </is>
-      </c>
-      <c r="B78" s="3" t="inlineStr">
-        <is>
-          <t>Аналог оригинала</t>
-        </is>
-      </c>
-      <c r="C78" s="3" t="inlineStr">
-        <is>
-          <t>Nobel Replace Select</t>
-        </is>
-      </c>
-      <c r="D78" s="3" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
-      <c r="E78" s="13" t="inlineStr">
-        <is>
-          <t>32016С Аналог LM (копия оригинала) Nobel Replace Select 3.5 D=3.5 L=11 (арт. 29498), нерж. сталь, V.1</t>
-        </is>
-      </c>
-      <c r="F78" s="14" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G78" s="14" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H78" s="14" t="inlineStr">
-        <is>
-          <t>Версия 1</t>
-        </is>
-      </c>
-      <c r="I78" s="15" t="n">
-        <v>15</v>
-      </c>
-      <c r="J78" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="K78" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q78" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R78" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="S78" s="5" t="inlineStr"/>
-      <c r="T78" s="6" t="n"/>
-      <c r="U78" s="6" t="n"/>
-      <c r="V78" s="4" t="n"/>
+      <c r="A78" s="7" t="n"/>
+      <c r="B78" s="7" t="n"/>
+      <c r="C78" s="7" t="n"/>
+      <c r="D78" s="7" t="n"/>
+      <c r="E78" s="7" t="n"/>
+      <c r="F78" s="7" t="n"/>
+      <c r="G78" s="7" t="n"/>
+      <c r="H78" s="7" t="n"/>
+      <c r="I78" s="7" t="n"/>
+      <c r="J78" s="7" t="n"/>
+      <c r="K78" s="7" t="n"/>
+      <c r="L78" s="7" t="n"/>
+      <c r="M78" s="7" t="n"/>
+      <c r="N78" s="7" t="n"/>
+      <c r="O78" s="7" t="n"/>
+      <c r="P78" s="7" t="n"/>
+      <c r="Q78" s="7" t="n"/>
+      <c r="R78" s="7" t="n"/>
+      <c r="S78" s="7" t="n"/>
+      <c r="T78" s="8" t="n"/>
+      <c r="U78" s="8" t="n"/>
+      <c r="V78" s="7" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
@@ -5246,144 +5241,96 @@
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>Nobel Replace Select</t>
+          <t>Nobel Multi-Unit</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
         <is>
-          <t>3.5</t>
-        </is>
-      </c>
-      <c r="E79" s="17" t="inlineStr">
-        <is>
-          <t>32435С Аналог LM (собств. разр.) Nobel Replace Select 3.5 D=3.5 L=12.5, нерж. сталь, V.1</t>
-        </is>
-      </c>
-      <c r="F79" s="18" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G79" s="18" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H79" s="18" t="inlineStr">
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E79" s="3" t="inlineStr">
+        <is>
+          <t>32420С Аналог LM (собств. разр.) Nobel Multi-Unit, LENMIRIOT Multi-Unit D=4.8 L=14.7, нерж. сталь, V.1</t>
+        </is>
+      </c>
+      <c r="F79" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G79" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H79" s="3" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I79" s="19" t="n">
-        <v>1109</v>
-      </c>
-      <c r="J79" s="20" t="n">
-        <v>31</v>
+      <c r="I79" s="4" t="n">
+        <v>956</v>
+      </c>
+      <c r="J79" s="4" t="n">
+        <v>508</v>
       </c>
       <c r="K79" s="4" t="n">
-        <v>935</v>
+        <v>667</v>
       </c>
       <c r="L79" s="4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M79" s="4" t="n">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="N79" s="4" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="O79" s="4" t="n">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="P79" s="4" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="Q79" s="4" t="n">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="R79" s="4" t="n">
-        <v>2</v>
+        <v>225</v>
       </c>
       <c r="S79" s="5" t="inlineStr"/>
-      <c r="T79" s="6" t="n"/>
+      <c r="T79" s="6" t="n">
+        <v>850</v>
+      </c>
       <c r="U79" s="6" t="n"/>
-      <c r="V79" s="4" t="n"/>
+      <c r="V79" s="4" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="inlineStr">
-        <is>
-          <t>Аналог</t>
-        </is>
-      </c>
-      <c r="B80" s="3" t="inlineStr">
-        <is>
-          <t>Аналог оригинала</t>
-        </is>
-      </c>
-      <c r="C80" s="3" t="inlineStr">
-        <is>
-          <t>Nobel Replace Select</t>
-        </is>
-      </c>
-      <c r="D80" s="3" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="E80" s="13" t="inlineStr">
-        <is>
-          <t>32017С Аналог LM (копия оригинала) Nobel Replace Select 4.3 D=4.3 L=11 (арт. 29500), нерж. сталь, V.1</t>
-        </is>
-      </c>
-      <c r="F80" s="14" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G80" s="14" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H80" s="14" t="inlineStr">
-        <is>
-          <t>Версия 1</t>
-        </is>
-      </c>
-      <c r="I80" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="J80" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L80" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M80" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N80" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O80" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P80" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q80" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R80" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S80" s="5" t="inlineStr"/>
-      <c r="T80" s="6" t="n"/>
-      <c r="U80" s="6" t="n"/>
-      <c r="V80" s="4" t="n"/>
+      <c r="A80" s="7" t="n"/>
+      <c r="B80" s="7" t="n"/>
+      <c r="C80" s="7" t="n"/>
+      <c r="D80" s="7" t="n"/>
+      <c r="E80" s="7" t="n"/>
+      <c r="F80" s="7" t="n"/>
+      <c r="G80" s="7" t="n"/>
+      <c r="H80" s="7" t="n"/>
+      <c r="I80" s="7" t="n"/>
+      <c r="J80" s="7" t="n"/>
+      <c r="K80" s="7" t="n"/>
+      <c r="L80" s="7" t="n"/>
+      <c r="M80" s="7" t="n"/>
+      <c r="N80" s="7" t="n"/>
+      <c r="O80" s="7" t="n"/>
+      <c r="P80" s="7" t="n"/>
+      <c r="Q80" s="7" t="n"/>
+      <c r="R80" s="7" t="n"/>
+      <c r="S80" s="7" t="n"/>
+      <c r="T80" s="8" t="n"/>
+      <c r="U80" s="8" t="n"/>
+      <c r="V80" s="7" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
@@ -5393,7 +5340,7 @@
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>Разработка Lenmiriot</t>
+          <t>Аналог оригинала</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
@@ -5403,55 +5350,55 @@
       </c>
       <c r="D81" s="3" t="inlineStr">
         <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="E81" s="17" t="inlineStr">
-        <is>
-          <t>32327С Аналог LM (собств. разр.) Nobel Replace Select 4.3 D=4.3 L=12.5, нерж. сталь, V.1</t>
-        </is>
-      </c>
-      <c r="F81" s="18" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G81" s="18" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H81" s="18" t="inlineStr">
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="E81" s="13" t="inlineStr">
+        <is>
+          <t>32016С Аналог LM (копия оригинала) Nobel Replace Select 3.5 D=3.5 L=11 (арт. 29498), нерж. сталь, V.1</t>
+        </is>
+      </c>
+      <c r="F81" s="14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G81" s="14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H81" s="14" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I81" s="19" t="n">
-        <v>672</v>
-      </c>
-      <c r="J81" s="20" t="n">
-        <v>59</v>
+      <c r="I81" s="15" t="n">
+        <v>15</v>
+      </c>
+      <c r="J81" s="16" t="n">
+        <v>3</v>
       </c>
       <c r="K81" s="4" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L81" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M81" s="4" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="N81" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O81" s="4" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="P81" s="4" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="Q81" s="4" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="R81" s="4" t="n">
         <v>3</v>
@@ -5459,9 +5406,7 @@
       <c r="S81" s="5" t="inlineStr"/>
       <c r="T81" s="6" t="n"/>
       <c r="U81" s="6" t="n"/>
-      <c r="V81" s="4" t="n">
-        <v>4</v>
-      </c>
+      <c r="V81" s="4" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
@@ -5471,7 +5416,7 @@
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>Аналог оригинала</t>
+          <t>Разработка Lenmiriot</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -5481,58 +5426,58 @@
       </c>
       <c r="D82" s="3" t="inlineStr">
         <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="E82" s="13" t="inlineStr">
-        <is>
-          <t>32018С Аналог LM (копия оригинала) Nobel Replace Select 5.0 D=5 L=10.8 (арт. 29502), нерж. сталь, V.1</t>
-        </is>
-      </c>
-      <c r="F82" s="14" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G82" s="14" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H82" s="14" t="inlineStr">
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="E82" s="17" t="inlineStr">
+        <is>
+          <t>32435С Аналог LM (собств. разр.) Nobel Replace Select 3.5 D=3.5 L=12.5, нерж. сталь, V.1</t>
+        </is>
+      </c>
+      <c r="F82" s="18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G82" s="18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H82" s="18" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I82" s="15" t="n">
-        <v>52</v>
-      </c>
-      <c r="J82" s="16" t="n">
-        <v>1</v>
+      <c r="I82" s="19" t="n">
+        <v>1105</v>
+      </c>
+      <c r="J82" s="20" t="n">
+        <v>35</v>
       </c>
       <c r="K82" s="4" t="n">
-        <v>0</v>
+        <v>903</v>
       </c>
       <c r="L82" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M82" s="4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N82" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O82" s="4" t="n">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="P82" s="4" t="n">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="Q82" s="4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R82" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S82" s="5" t="inlineStr"/>
       <c r="T82" s="6" t="n"/>
@@ -5547,7 +5492,7 @@
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>Разработка Lenmiriot</t>
+          <t>Аналог оригинала</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
@@ -5557,58 +5502,58 @@
       </c>
       <c r="D83" s="3" t="inlineStr">
         <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="E83" s="17" t="inlineStr">
-        <is>
-          <t>32328С Аналог LM (собств. разр.) Nobel Replace Select 5.0 D=5 L=12.5, нерж. сталь, V.1</t>
-        </is>
-      </c>
-      <c r="F83" s="18" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G83" s="18" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H83" s="18" t="inlineStr">
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="E83" s="23" t="inlineStr">
+        <is>
+          <t>32017С Аналог LM (копия оригинала) Nobel Replace Select 4.3 D=4.3 L=11 (арт. 29500), нерж. сталь, V.1</t>
+        </is>
+      </c>
+      <c r="F83" s="14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G83" s="14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H83" s="14" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I83" s="19" t="n">
-        <v>612</v>
-      </c>
-      <c r="J83" s="20" t="n">
-        <v>8</v>
+      <c r="I83" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" s="25" t="n">
+        <v>4</v>
       </c>
       <c r="K83" s="4" t="n">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="L83" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M83" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N83" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O83" s="4" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="P83" s="4" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R83" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S83" s="5" t="inlineStr"/>
       <c r="T83" s="6" t="n"/>
@@ -5616,28 +5561,82 @@
       <c r="V83" s="4" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" s="7" t="n"/>
-      <c r="B84" s="7" t="n"/>
-      <c r="C84" s="7" t="n"/>
-      <c r="D84" s="7" t="n"/>
-      <c r="E84" s="7" t="n"/>
-      <c r="F84" s="7" t="n"/>
-      <c r="G84" s="7" t="n"/>
-      <c r="H84" s="7" t="n"/>
-      <c r="I84" s="7" t="n"/>
-      <c r="J84" s="7" t="n"/>
-      <c r="K84" s="7" t="n"/>
-      <c r="L84" s="7" t="n"/>
-      <c r="M84" s="7" t="n"/>
-      <c r="N84" s="7" t="n"/>
-      <c r="O84" s="7" t="n"/>
-      <c r="P84" s="7" t="n"/>
-      <c r="Q84" s="7" t="n"/>
-      <c r="R84" s="7" t="n"/>
-      <c r="S84" s="7" t="n"/>
-      <c r="T84" s="8" t="n"/>
-      <c r="U84" s="8" t="n"/>
-      <c r="V84" s="7" t="n"/>
+      <c r="A84" s="3" t="inlineStr">
+        <is>
+          <t>Аналог</t>
+        </is>
+      </c>
+      <c r="B84" s="3" t="inlineStr">
+        <is>
+          <t>Разработка Lenmiriot</t>
+        </is>
+      </c>
+      <c r="C84" s="3" t="inlineStr">
+        <is>
+          <t>Nobel Replace Select</t>
+        </is>
+      </c>
+      <c r="D84" s="3" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="E84" s="17" t="inlineStr">
+        <is>
+          <t>32327С Аналог LM (собств. разр.) Nobel Replace Select 4.3 D=4.3 L=12.5, нерж. сталь, V.1</t>
+        </is>
+      </c>
+      <c r="F84" s="18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G84" s="18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H84" s="18" t="inlineStr">
+        <is>
+          <t>Версия 1</t>
+        </is>
+      </c>
+      <c r="I84" s="19" t="n">
+        <v>646</v>
+      </c>
+      <c r="J84" s="20" t="n">
+        <v>86</v>
+      </c>
+      <c r="K84" s="4" t="n">
+        <v>497</v>
+      </c>
+      <c r="L84" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M84" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="N84" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O84" s="4" t="n">
+        <v>109</v>
+      </c>
+      <c r="P84" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q84" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="R84" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="S84" s="5" t="inlineStr"/>
+      <c r="T84" s="6" t="n"/>
+      <c r="U84" s="6" t="n"/>
+      <c r="V84" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
@@ -5647,75 +5646,73 @@
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>Разработка Lenmiriot</t>
+          <t>Аналог оригинала</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>Osstem Implant</t>
+          <t>Nobel Replace Select</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
         <is>
-          <t>Mini (2 резьбы)</t>
-        </is>
-      </c>
-      <c r="E85" s="3" t="inlineStr">
-        <is>
-          <t>32313СV2 Аналог LM (собств. разр.) Osstem Implant Mini (2 резьбы) (3.5) D=3.5 L=12.5, нерж. сталь, V.2</t>
-        </is>
-      </c>
-      <c r="F85" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G85" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H85" s="3" t="inlineStr">
-        <is>
-          <t>Версия 2</t>
-        </is>
-      </c>
-      <c r="I85" s="4" t="n">
-        <v>2444</v>
-      </c>
-      <c r="J85" s="4" t="n">
-        <v>263</v>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E85" s="13" t="inlineStr">
+        <is>
+          <t>32018С Аналог LM (копия оригинала) Nobel Replace Select 5.0 D=5 L=10.8 (арт. 29502), нерж. сталь, V.1</t>
+        </is>
+      </c>
+      <c r="F85" s="14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G85" s="14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H85" s="14" t="inlineStr">
+        <is>
+          <t>Версия 1</t>
+        </is>
+      </c>
+      <c r="I85" s="15" t="n">
+        <v>52</v>
+      </c>
+      <c r="J85" s="16" t="n">
+        <v>1</v>
       </c>
       <c r="K85" s="4" t="n">
-        <v>1430</v>
+        <v>0</v>
       </c>
       <c r="L85" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M85" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="P85" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q85" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="M85" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="N85" s="4" t="n">
-        <v>39</v>
-      </c>
-      <c r="O85" s="4" t="n">
-        <v>894</v>
-      </c>
-      <c r="P85" s="4" t="n">
-        <v>119</v>
-      </c>
-      <c r="Q85" s="4" t="n">
-        <v>146</v>
-      </c>
-      <c r="R85" s="4" t="n">
-        <v>69</v>
       </c>
       <c r="S85" s="5" t="inlineStr"/>
       <c r="T85" s="6" t="n"/>
       <c r="U85" s="6" t="n"/>
-      <c r="V85" s="4" t="n">
-        <v>54</v>
-      </c>
+      <c r="V85" s="4" t="n"/>
     </row>
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
@@ -5730,76 +5727,68 @@
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>Osstem Implant</t>
+          <t>Nobel Replace Select</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
         <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="E86" s="3" t="inlineStr">
-        <is>
-          <t>32307 Аналог LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=12.5, нерж. сталь, V.1</t>
-        </is>
-      </c>
-      <c r="F86" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G86" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H86" s="3" t="inlineStr">
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E86" s="17" t="inlineStr">
+        <is>
+          <t>32328С Аналог LM (собств. разр.) Nobel Replace Select 5.0 D=5 L=12.5, нерж. сталь, V.1</t>
+        </is>
+      </c>
+      <c r="F86" s="18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G86" s="18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H86" s="18" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I86" s="4" t="n">
-        <v>1848</v>
-      </c>
-      <c r="J86" s="4" t="n">
-        <v>1064</v>
+      <c r="I86" s="19" t="n">
+        <v>609</v>
+      </c>
+      <c r="J86" s="20" t="n">
+        <v>11</v>
       </c>
       <c r="K86" s="4" t="n">
-        <v>937</v>
+        <v>390</v>
       </c>
       <c r="L86" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M86" s="4" t="n">
-        <v>132</v>
+        <v>5</v>
       </c>
       <c r="N86" s="4" t="n">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="O86" s="4" t="n">
-        <v>715</v>
+        <v>143</v>
       </c>
       <c r="P86" s="4" t="n">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c r="Q86" s="4" t="n">
-        <v>594</v>
+        <v>6</v>
       </c>
       <c r="R86" s="4" t="n">
-        <v>159</v>
-      </c>
-      <c r="S86" s="5" t="inlineStr">
-        <is>
-          <t>31.01-05.02</t>
-        </is>
-      </c>
-      <c r="T86" s="6" t="n">
-        <v>944</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S86" s="5" t="inlineStr"/>
+      <c r="T86" s="6" t="n"/>
       <c r="U86" s="6" t="n"/>
-      <c r="V86" s="4" t="n">
-        <v>168</v>
-      </c>
+      <c r="V86" s="4" t="n"/>
     </row>
     <row r="87">
       <c r="A87" s="7" t="n"/>
@@ -5838,17 +5827,17 @@
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>Osstem Implant Multi-Unit</t>
+          <t>Osstem Implant</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>Mini (2 резьбы)</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>32432С Аналог LM (собств. разр.) Osstem Implant Multi-Unit D=4.8 L=12.5, нерж. сталь, V.1</t>
+          <t>32313СV2 Аналог LM (собств. разр.) Osstem Implant Mini (2 резьбы) (3.5) D=3.5 L=12.5, нерж. сталь, V.2</t>
         </is>
       </c>
       <c r="F88" s="3" t="inlineStr">
@@ -5863,249 +5852,255 @@
       </c>
       <c r="H88" s="3" t="inlineStr">
         <is>
-          <t>Версия 1</t>
+          <t>Версия 2</t>
         </is>
       </c>
       <c r="I88" s="4" t="n">
-        <v>596</v>
+        <v>2280</v>
       </c>
       <c r="J88" s="4" t="n">
-        <v>175</v>
+        <v>409</v>
       </c>
       <c r="K88" s="4" t="n">
-        <v>358</v>
+        <v>1350</v>
       </c>
       <c r="L88" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88" s="4" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="N88" s="4" t="n">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="O88" s="4" t="n">
-        <v>214</v>
+        <v>804</v>
       </c>
       <c r="P88" s="4" t="n">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="Q88" s="4" t="n">
-        <v>69</v>
+        <v>236</v>
       </c>
       <c r="R88" s="4" t="n">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="S88" s="5" t="inlineStr"/>
-      <c r="T88" s="6" t="n">
-        <v>5</v>
-      </c>
+      <c r="T88" s="6" t="n"/>
       <c r="U88" s="6" t="n"/>
       <c r="V88" s="4" t="n">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="7" t="n"/>
-      <c r="B89" s="7" t="n"/>
-      <c r="C89" s="7" t="n"/>
-      <c r="D89" s="7" t="n"/>
-      <c r="E89" s="7" t="n"/>
-      <c r="F89" s="7" t="n"/>
-      <c r="G89" s="7" t="n"/>
-      <c r="H89" s="7" t="n"/>
-      <c r="I89" s="7" t="n"/>
-      <c r="J89" s="7" t="n"/>
-      <c r="K89" s="7" t="n"/>
-      <c r="L89" s="7" t="n"/>
-      <c r="M89" s="7" t="n"/>
-      <c r="N89" s="7" t="n"/>
-      <c r="O89" s="7" t="n"/>
-      <c r="P89" s="7" t="n"/>
-      <c r="Q89" s="7" t="n"/>
-      <c r="R89" s="7" t="n"/>
-      <c r="S89" s="7" t="n"/>
-      <c r="T89" s="8" t="n"/>
-      <c r="U89" s="8" t="n"/>
-      <c r="V89" s="7" t="n"/>
+      <c r="A89" s="3" t="inlineStr">
+        <is>
+          <t>Аналог</t>
+        </is>
+      </c>
+      <c r="B89" s="3" t="inlineStr">
+        <is>
+          <t>Разработка Lenmiriot</t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="inlineStr">
+        <is>
+          <t>Osstem Implant</t>
+        </is>
+      </c>
+      <c r="D89" s="3" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="E89" s="3" t="inlineStr">
+        <is>
+          <t>32307 Аналог LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=12.5, нерж. сталь, V.1</t>
+        </is>
+      </c>
+      <c r="F89" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G89" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H89" s="3" t="inlineStr">
+        <is>
+          <t>Версия 1</t>
+        </is>
+      </c>
+      <c r="I89" s="4" t="n">
+        <v>2751</v>
+      </c>
+      <c r="J89" s="4" t="n">
+        <v>1431</v>
+      </c>
+      <c r="K89" s="4" t="n">
+        <v>1562</v>
+      </c>
+      <c r="L89" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" s="4" t="n">
+        <v>147</v>
+      </c>
+      <c r="N89" s="4" t="n">
+        <v>209</v>
+      </c>
+      <c r="O89" s="4" t="n">
+        <v>1015</v>
+      </c>
+      <c r="P89" s="4" t="n">
+        <v>174</v>
+      </c>
+      <c r="Q89" s="4" t="n">
+        <v>844</v>
+      </c>
+      <c r="R89" s="4" t="n">
+        <v>231</v>
+      </c>
+      <c r="S89" s="5" t="inlineStr">
+        <is>
+          <t>07-10.02</t>
+        </is>
+      </c>
+      <c r="T89" s="6" t="n">
+        <v>1566</v>
+      </c>
+      <c r="U89" s="6" t="n"/>
+      <c r="V89" s="4" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="inlineStr">
+      <c r="A90" s="7" t="n"/>
+      <c r="B90" s="7" t="n"/>
+      <c r="C90" s="7" t="n"/>
+      <c r="D90" s="7" t="n"/>
+      <c r="E90" s="7" t="n"/>
+      <c r="F90" s="7" t="n"/>
+      <c r="G90" s="7" t="n"/>
+      <c r="H90" s="7" t="n"/>
+      <c r="I90" s="7" t="n"/>
+      <c r="J90" s="7" t="n"/>
+      <c r="K90" s="7" t="n"/>
+      <c r="L90" s="7" t="n"/>
+      <c r="M90" s="7" t="n"/>
+      <c r="N90" s="7" t="n"/>
+      <c r="O90" s="7" t="n"/>
+      <c r="P90" s="7" t="n"/>
+      <c r="Q90" s="7" t="n"/>
+      <c r="R90" s="7" t="n"/>
+      <c r="S90" s="7" t="n"/>
+      <c r="T90" s="8" t="n"/>
+      <c r="U90" s="8" t="n"/>
+      <c r="V90" s="7" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="inlineStr">
         <is>
           <t>Аналог</t>
         </is>
       </c>
-      <c r="B90" s="3" t="inlineStr">
+      <c r="B91" s="3" t="inlineStr">
         <is>
           <t>Разработка Lenmiriot</t>
         </is>
       </c>
-      <c r="C90" s="3" t="inlineStr">
-        <is>
-          <t>Sky Bredent</t>
-        </is>
-      </c>
-      <c r="D90" s="3" t="inlineStr">
+      <c r="C91" s="3" t="inlineStr">
+        <is>
+          <t>Osstem Implant Multi-Unit</t>
+        </is>
+      </c>
+      <c r="D91" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="E90" s="3" t="inlineStr">
-        <is>
-          <t>32389С Аналог LM (собств. разр.) Sky Bredent D=4 L=12.5, нерж. сталь, V.1</t>
-        </is>
-      </c>
-      <c r="F90" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G90" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H90" s="3" t="inlineStr">
+      <c r="E91" s="3" t="inlineStr">
+        <is>
+          <t>32432С Аналог LM (собств. разр.) Osstem Implant Multi-Unit D=4.8 L=12.5, нерж. сталь, V.1</t>
+        </is>
+      </c>
+      <c r="F91" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G91" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H91" s="3" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I90" s="4" t="n">
-        <v>352</v>
-      </c>
-      <c r="J90" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" s="4" t="n">
-        <v>211</v>
-      </c>
-      <c r="L90" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M90" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N90" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O90" s="4" t="n">
-        <v>95</v>
-      </c>
-      <c r="P90" s="4" t="n">
-        <v>46</v>
-      </c>
-      <c r="Q90" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R90" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S90" s="5" t="inlineStr"/>
-      <c r="T90" s="6" t="n"/>
-      <c r="U90" s="6" t="n"/>
-      <c r="V90" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="7" t="n"/>
-      <c r="B91" s="7" t="n"/>
-      <c r="C91" s="7" t="n"/>
-      <c r="D91" s="7" t="n"/>
-      <c r="E91" s="7" t="n"/>
-      <c r="F91" s="7" t="n"/>
-      <c r="G91" s="7" t="n"/>
-      <c r="H91" s="7" t="n"/>
-      <c r="I91" s="7" t="n"/>
-      <c r="J91" s="7" t="n"/>
-      <c r="K91" s="7" t="n"/>
-      <c r="L91" s="7" t="n"/>
-      <c r="M91" s="7" t="n"/>
-      <c r="N91" s="7" t="n"/>
-      <c r="O91" s="7" t="n"/>
-      <c r="P91" s="7" t="n"/>
-      <c r="Q91" s="7" t="n"/>
-      <c r="R91" s="7" t="n"/>
-      <c r="S91" s="7" t="n"/>
-      <c r="T91" s="8" t="n"/>
-      <c r="U91" s="8" t="n"/>
-      <c r="V91" s="7" t="n"/>
+      <c r="I91" s="4" t="n">
+        <v>612</v>
+      </c>
+      <c r="J91" s="4" t="n">
+        <v>209</v>
+      </c>
+      <c r="K91" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="L91" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="N91" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="O91" s="4" t="n">
+        <v>298</v>
+      </c>
+      <c r="P91" s="4" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q91" s="4" t="n">
+        <v>85</v>
+      </c>
+      <c r="R91" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="S91" s="5" t="inlineStr"/>
+      <c r="T91" s="6" t="n"/>
+      <c r="U91" s="6" t="n"/>
+      <c r="V91" s="4" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="inlineStr">
-        <is>
-          <t>Аналог</t>
-        </is>
-      </c>
-      <c r="B92" s="3" t="inlineStr">
-        <is>
-          <t>Аналог оригинала</t>
-        </is>
-      </c>
-      <c r="C92" s="3" t="inlineStr">
-        <is>
-          <t>Straumann SynOcta</t>
-        </is>
-      </c>
-      <c r="D92" s="3" t="inlineStr">
-        <is>
-          <t>NN (3.5)</t>
-        </is>
-      </c>
-      <c r="E92" s="3" t="inlineStr">
-        <is>
-          <t>32079С Аналог LM (копия оригинала) Straumann SynOcta NN (3.5) D=3.5 L=14 (арт. 048.130), нерж. сталь, V.1</t>
-        </is>
-      </c>
-      <c r="F92" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G92" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H92" s="3" t="inlineStr">
-        <is>
-          <t>Версия 1</t>
-        </is>
-      </c>
-      <c r="I92" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="J92" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M92" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N92" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O92" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P92" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q92" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R92" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S92" s="5" t="inlineStr"/>
-      <c r="T92" s="6" t="n"/>
-      <c r="U92" s="6" t="n"/>
-      <c r="V92" s="4" t="n"/>
+      <c r="A92" s="7" t="n"/>
+      <c r="B92" s="7" t="n"/>
+      <c r="C92" s="7" t="n"/>
+      <c r="D92" s="7" t="n"/>
+      <c r="E92" s="7" t="n"/>
+      <c r="F92" s="7" t="n"/>
+      <c r="G92" s="7" t="n"/>
+      <c r="H92" s="7" t="n"/>
+      <c r="I92" s="7" t="n"/>
+      <c r="J92" s="7" t="n"/>
+      <c r="K92" s="7" t="n"/>
+      <c r="L92" s="7" t="n"/>
+      <c r="M92" s="7" t="n"/>
+      <c r="N92" s="7" t="n"/>
+      <c r="O92" s="7" t="n"/>
+      <c r="P92" s="7" t="n"/>
+      <c r="Q92" s="7" t="n"/>
+      <c r="R92" s="7" t="n"/>
+      <c r="S92" s="7" t="n"/>
+      <c r="T92" s="8" t="n"/>
+      <c r="U92" s="8" t="n"/>
+      <c r="V92" s="7" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
@@ -6120,17 +6115,17 @@
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>Straumann SynOcta</t>
+          <t>Sky Bredent</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
         <is>
-          <t>RN (4.8)</t>
-        </is>
-      </c>
-      <c r="E93" s="11" t="inlineStr">
-        <is>
-          <t>32345С Аналог LM (собств. разр.) Straumann SynOcta RN (4.8) D=4.8 L=12.5, нерж. сталь, V.1</t>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E93" s="3" t="inlineStr">
+        <is>
+          <t>32389С Аналог LM (собств. разр.) Sky Bredent D=4 L=12.5, нерж. сталь, V.1</t>
         </is>
       </c>
       <c r="F93" s="3" t="inlineStr">
@@ -6149,117 +6144,65 @@
         </is>
       </c>
       <c r="I93" s="4" t="n">
-        <v>184</v>
+        <v>351</v>
       </c>
       <c r="J93" s="4" t="n">
-        <v>149</v>
-      </c>
-      <c r="K93" s="12" t="n">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="K93" s="4" t="n">
+        <v>211</v>
       </c>
       <c r="L93" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="M93" s="12" t="n">
-        <v>99</v>
+      <c r="M93" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="N93" s="4" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O93" s="4" t="n">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="P93" s="4" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Q93" s="4" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="R93" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S93" s="5" t="inlineStr"/>
       <c r="T93" s="6" t="n"/>
       <c r="U93" s="6" t="n"/>
       <c r="V93" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="inlineStr">
-        <is>
-          <t>Аналог</t>
-        </is>
-      </c>
-      <c r="B94" s="3" t="inlineStr">
-        <is>
-          <t>Аналог оригинала</t>
-        </is>
-      </c>
-      <c r="C94" s="3" t="inlineStr">
-        <is>
-          <t>Straumann SynOcta</t>
-        </is>
-      </c>
-      <c r="D94" s="3" t="inlineStr">
-        <is>
-          <t>WN (6.5)</t>
-        </is>
-      </c>
-      <c r="E94" s="13" t="inlineStr">
-        <is>
-          <t>32081С Аналог LM (копия оригинала) Straumann SynOcta WN (6.5) D=6.5 L=12 (арт. 048.171), нерж. сталь, V.1</t>
-        </is>
-      </c>
-      <c r="F94" s="14" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G94" s="14" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H94" s="14" t="inlineStr">
-        <is>
-          <t>Версия 1</t>
-        </is>
-      </c>
-      <c r="I94" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="J94" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M94" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N94" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O94" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P94" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q94" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R94" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S94" s="5" t="inlineStr"/>
-      <c r="T94" s="6" t="n"/>
-      <c r="U94" s="6" t="n"/>
-      <c r="V94" s="4" t="n"/>
+      <c r="A94" s="7" t="n"/>
+      <c r="B94" s="7" t="n"/>
+      <c r="C94" s="7" t="n"/>
+      <c r="D94" s="7" t="n"/>
+      <c r="E94" s="7" t="n"/>
+      <c r="F94" s="7" t="n"/>
+      <c r="G94" s="7" t="n"/>
+      <c r="H94" s="7" t="n"/>
+      <c r="I94" s="7" t="n"/>
+      <c r="J94" s="7" t="n"/>
+      <c r="K94" s="7" t="n"/>
+      <c r="L94" s="7" t="n"/>
+      <c r="M94" s="7" t="n"/>
+      <c r="N94" s="7" t="n"/>
+      <c r="O94" s="7" t="n"/>
+      <c r="P94" s="7" t="n"/>
+      <c r="Q94" s="7" t="n"/>
+      <c r="R94" s="7" t="n"/>
+      <c r="S94" s="7" t="n"/>
+      <c r="T94" s="8" t="n"/>
+      <c r="U94" s="8" t="n"/>
+      <c r="V94" s="7" t="n"/>
     </row>
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
@@ -6269,7 +6212,7 @@
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Разработка Lenmiriot</t>
+          <t>Аналог оригинала</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
@@ -6279,58 +6222,58 @@
       </c>
       <c r="D95" s="3" t="inlineStr">
         <is>
-          <t>WN (6.5)</t>
-        </is>
-      </c>
-      <c r="E95" s="17" t="inlineStr">
-        <is>
-          <t>32346С Аналог LM (собств. разр.) Straumann SynOcta WN (6.5) D=6.5 L=12.5, нерж. сталь, V.1</t>
-        </is>
-      </c>
-      <c r="F95" s="18" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G95" s="18" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H95" s="18" t="inlineStr">
+          <t>NN (3.5)</t>
+        </is>
+      </c>
+      <c r="E95" s="3" t="inlineStr">
+        <is>
+          <t>32079С Аналог LM (копия оригинала) Straumann SynOcta NN (3.5) D=3.5 L=14 (арт. 048.130), нерж. сталь, V.1</t>
+        </is>
+      </c>
+      <c r="F95" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G95" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H95" s="3" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I95" s="19" t="n">
-        <v>156</v>
-      </c>
-      <c r="J95" s="20" t="n">
-        <v>10</v>
+      <c r="I95" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="J95" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="K95" s="4" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="L95" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M95" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N95" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O95" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="P95" s="4" t="n">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="Q95" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R95" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S95" s="5" t="inlineStr"/>
       <c r="T95" s="6" t="n"/>
@@ -6338,28 +6281,86 @@
       <c r="V95" s="4" t="n"/>
     </row>
     <row r="96">
-      <c r="A96" s="7" t="n"/>
-      <c r="B96" s="7" t="n"/>
-      <c r="C96" s="7" t="n"/>
-      <c r="D96" s="7" t="n"/>
-      <c r="E96" s="7" t="n"/>
-      <c r="F96" s="7" t="n"/>
-      <c r="G96" s="7" t="n"/>
-      <c r="H96" s="7" t="n"/>
-      <c r="I96" s="7" t="n"/>
-      <c r="J96" s="7" t="n"/>
-      <c r="K96" s="7" t="n"/>
-      <c r="L96" s="7" t="n"/>
-      <c r="M96" s="7" t="n"/>
-      <c r="N96" s="7" t="n"/>
-      <c r="O96" s="7" t="n"/>
-      <c r="P96" s="7" t="n"/>
-      <c r="Q96" s="7" t="n"/>
-      <c r="R96" s="7" t="n"/>
-      <c r="S96" s="7" t="n"/>
-      <c r="T96" s="8" t="n"/>
-      <c r="U96" s="8" t="n"/>
-      <c r="V96" s="7" t="n"/>
+      <c r="A96" s="3" t="inlineStr">
+        <is>
+          <t>Аналог</t>
+        </is>
+      </c>
+      <c r="B96" s="3" t="inlineStr">
+        <is>
+          <t>Разработка Lenmiriot</t>
+        </is>
+      </c>
+      <c r="C96" s="3" t="inlineStr">
+        <is>
+          <t>Straumann SynOcta</t>
+        </is>
+      </c>
+      <c r="D96" s="3" t="inlineStr">
+        <is>
+          <t>RN (4.8)</t>
+        </is>
+      </c>
+      <c r="E96" s="11" t="inlineStr">
+        <is>
+          <t>32345С Аналог LM (собств. разр.) Straumann SynOcta RN (4.8) D=4.8 L=12.5, нерж. сталь, V.1</t>
+        </is>
+      </c>
+      <c r="F96" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G96" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H96" s="3" t="inlineStr">
+        <is>
+          <t>Версия 1</t>
+        </is>
+      </c>
+      <c r="I96" s="4" t="n">
+        <v>172</v>
+      </c>
+      <c r="J96" s="4" t="n">
+        <v>164</v>
+      </c>
+      <c r="K96" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="L96" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" s="12" t="n">
+        <v>104</v>
+      </c>
+      <c r="N96" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="O96" s="4" t="n">
+        <v>122</v>
+      </c>
+      <c r="P96" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q96" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="R96" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" s="5" t="inlineStr">
+        <is>
+          <t>11-14.02</t>
+        </is>
+      </c>
+      <c r="T96" s="6" t="n"/>
+      <c r="U96" s="6" t="n"/>
+      <c r="V96" s="4" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
@@ -6374,17 +6375,17 @@
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>Xive</t>
+          <t>Straumann SynOcta</t>
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>WN (6.5)</t>
         </is>
       </c>
       <c r="E97" s="13" t="inlineStr">
         <is>
-          <t>32019С Аналог LM (копия оригинала) Xive 3.4 D=3.5 L=13 (арт. 45-2631), нерж. сталь, V.1</t>
+          <t>32081С Аналог LM (копия оригинала) Straumann SynOcta WN (6.5) D=6.5 L=12 (арт. 048.171), нерж. сталь, V.1</t>
         </is>
       </c>
       <c r="F97" s="14" t="inlineStr">
@@ -6403,7 +6404,7 @@
         </is>
       </c>
       <c r="I97" s="15" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J97" s="16" t="n">
         <v>0</v>
@@ -6424,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="P97" s="4" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="Q97" s="4" t="n">
         <v>0</v>
@@ -6435,9 +6436,7 @@
       <c r="S97" s="5" t="inlineStr"/>
       <c r="T97" s="6" t="n"/>
       <c r="U97" s="6" t="n"/>
-      <c r="V97" s="4" t="n">
-        <v>10</v>
-      </c>
+      <c r="V97" s="4" t="n"/>
     </row>
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
@@ -6452,17 +6451,17 @@
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>Xive</t>
+          <t>Straumann SynOcta</t>
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>WN (6.5)</t>
         </is>
       </c>
       <c r="E98" s="17" t="inlineStr">
         <is>
-          <t>32329С Аналог LM (собств. разр.) Xive 3.4 D=3.4 L=12.5, нерж. сталь, V.1</t>
+          <t>32346С Аналог LM (собств. разр.) Straumann SynOcta WN (6.5) D=6.5 L=12.5, нерж. сталь, V.1</t>
         </is>
       </c>
       <c r="F98" s="18" t="inlineStr">
@@ -6481,127 +6480,63 @@
         </is>
       </c>
       <c r="I98" s="19" t="n">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="J98" s="20" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K98" s="4" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="L98" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M98" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N98" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O98" s="4" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="P98" s="4" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="Q98" s="4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="R98" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="S98" s="5" t="inlineStr">
-        <is>
-          <t>05-07.02</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S98" s="5" t="inlineStr"/>
       <c r="T98" s="6" t="n"/>
       <c r="U98" s="6" t="n"/>
-      <c r="V98" s="4" t="n">
-        <v>5</v>
-      </c>
+      <c r="V98" s="4" t="n"/>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="inlineStr">
-        <is>
-          <t>Аналог</t>
-        </is>
-      </c>
-      <c r="B99" s="3" t="inlineStr">
-        <is>
-          <t>Разработка Lenmiriot</t>
-        </is>
-      </c>
-      <c r="C99" s="3" t="inlineStr">
-        <is>
-          <t>Xive</t>
-        </is>
-      </c>
-      <c r="D99" s="3" t="inlineStr">
-        <is>
-          <t>3.8</t>
-        </is>
-      </c>
-      <c r="E99" s="11" t="inlineStr">
-        <is>
-          <t>32330С Аналог LM (собств. разр.) Xive 3.8 D=3.9 L=12.5, нерж. сталь, V.1</t>
-        </is>
-      </c>
-      <c r="F99" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G99" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H99" s="3" t="inlineStr">
-        <is>
-          <t>Версия 1</t>
-        </is>
-      </c>
-      <c r="I99" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="J99" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="K99" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="O99" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="P99" s="4" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q99" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R99" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="S99" s="5" t="inlineStr">
-        <is>
-          <t>05-07.02</t>
-        </is>
-      </c>
-      <c r="T99" s="6" t="n"/>
-      <c r="U99" s="6" t="n"/>
-      <c r="V99" s="4" t="n">
-        <v>2</v>
-      </c>
+      <c r="A99" s="7" t="n"/>
+      <c r="B99" s="7" t="n"/>
+      <c r="C99" s="7" t="n"/>
+      <c r="D99" s="7" t="n"/>
+      <c r="E99" s="7" t="n"/>
+      <c r="F99" s="7" t="n"/>
+      <c r="G99" s="7" t="n"/>
+      <c r="H99" s="7" t="n"/>
+      <c r="I99" s="7" t="n"/>
+      <c r="J99" s="7" t="n"/>
+      <c r="K99" s="7" t="n"/>
+      <c r="L99" s="7" t="n"/>
+      <c r="M99" s="7" t="n"/>
+      <c r="N99" s="7" t="n"/>
+      <c r="O99" s="7" t="n"/>
+      <c r="P99" s="7" t="n"/>
+      <c r="Q99" s="7" t="n"/>
+      <c r="R99" s="7" t="n"/>
+      <c r="S99" s="7" t="n"/>
+      <c r="T99" s="8" t="n"/>
+      <c r="U99" s="8" t="n"/>
+      <c r="V99" s="7" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
@@ -6621,12 +6556,12 @@
       </c>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E100" s="13" t="inlineStr">
         <is>
-          <t>32021С Аналог LM (копия оригинала) Xive 4.5 D=4.6 L=12.8 (арт. 45-2651), нерж. сталь, V.1</t>
+          <t>32019С Аналог LM (копия оригинала) Xive 3.4 D=3.5 L=13 (арт. 45-2631), нерж. сталь, V.1</t>
         </is>
       </c>
       <c r="F100" s="14" t="inlineStr">
@@ -6645,7 +6580,7 @@
         </is>
       </c>
       <c r="I100" s="15" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="J100" s="16" t="n">
         <v>0</v>
@@ -6666,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="P100" s="4" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="Q100" s="4" t="n">
         <v>0</v>
@@ -6677,7 +6612,9 @@
       <c r="S100" s="5" t="inlineStr"/>
       <c r="T100" s="6" t="n"/>
       <c r="U100" s="6" t="n"/>
-      <c r="V100" s="4" t="n"/>
+      <c r="V100" s="4" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
@@ -6697,12 +6634,12 @@
       </c>
       <c r="D101" s="3" t="inlineStr">
         <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="E101" s="17" t="inlineStr">
-        <is>
-          <t>32331С Аналог LM (собств. разр.) Xive 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="E101" s="26" t="inlineStr">
+        <is>
+          <t>32329С Аналог LM (собств. разр.) Xive 3.4 D=3.4 L=12.5, нерж. сталь, V.1</t>
         </is>
       </c>
       <c r="F101" s="18" t="inlineStr">
@@ -6721,65 +6658,127 @@
         </is>
       </c>
       <c r="I101" s="19" t="n">
-        <v>191</v>
+        <v>105</v>
       </c>
       <c r="J101" s="20" t="n">
-        <v>36</v>
-      </c>
-      <c r="K101" s="4" t="n">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="K101" s="10" t="n">
+        <v>4</v>
       </c>
       <c r="L101" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="M101" s="4" t="n">
-        <v>1</v>
+      <c r="M101" s="10" t="n">
+        <v>4</v>
       </c>
       <c r="N101" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="P101" s="4" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q101" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="O101" s="4" t="n">
-        <v>139</v>
-      </c>
-      <c r="P101" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q101" s="4" t="n">
-        <v>15</v>
-      </c>
       <c r="R101" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="S101" s="5" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="S101" s="5" t="inlineStr">
+        <is>
+          <t>11-13.02</t>
+        </is>
+      </c>
       <c r="T101" s="6" t="n"/>
       <c r="U101" s="6" t="n"/>
       <c r="V101" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="inlineStr">
+        <is>
+          <t>Аналог</t>
+        </is>
+      </c>
+      <c r="B102" s="3" t="inlineStr">
+        <is>
+          <t>Разработка Lenmiriot</t>
+        </is>
+      </c>
+      <c r="C102" s="3" t="inlineStr">
+        <is>
+          <t>Xive</t>
+        </is>
+      </c>
+      <c r="D102" s="3" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="E102" s="11" t="inlineStr">
+        <is>
+          <t>32330С Аналог LM (собств. разр.) Xive 3.8 D=3.9 L=12.5, нерж. сталь, V.1</t>
+        </is>
+      </c>
+      <c r="F102" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G102" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H102" s="3" t="inlineStr">
+        <is>
+          <t>Версия 1</t>
+        </is>
+      </c>
+      <c r="I102" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="J102" s="4" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="7" t="n"/>
-      <c r="B102" s="7" t="n"/>
-      <c r="C102" s="7" t="n"/>
-      <c r="D102" s="7" t="n"/>
-      <c r="E102" s="7" t="n"/>
-      <c r="F102" s="7" t="n"/>
-      <c r="G102" s="7" t="n"/>
-      <c r="H102" s="7" t="n"/>
-      <c r="I102" s="7" t="n"/>
-      <c r="J102" s="7" t="n"/>
-      <c r="K102" s="7" t="n"/>
-      <c r="L102" s="7" t="n"/>
-      <c r="M102" s="7" t="n"/>
-      <c r="N102" s="7" t="n"/>
-      <c r="O102" s="7" t="n"/>
-      <c r="P102" s="7" t="n"/>
-      <c r="Q102" s="7" t="n"/>
-      <c r="R102" s="7" t="n"/>
-      <c r="S102" s="7" t="n"/>
-      <c r="T102" s="8" t="n"/>
-      <c r="U102" s="8" t="n"/>
-      <c r="V102" s="7" t="n"/>
+      <c r="K102" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O102" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="P102" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q102" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" s="5" t="inlineStr">
+        <is>
+          <t>08-10.02</t>
+        </is>
+      </c>
+      <c r="T102" s="6" t="n"/>
+      <c r="U102" s="6" t="n"/>
+      <c r="V102" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
@@ -6789,275 +6788,277 @@
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Разработка Lenmiriot</t>
+          <t>Аналог оригинала</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>Zimmer</t>
+          <t>Xive</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
         <is>
-          <t>3.5</t>
-        </is>
-      </c>
-      <c r="E103" s="3" t="inlineStr">
-        <is>
-          <t>32395С Аналог LM (собств. разр.) Zimmer 3.5, нерж. сталь V.1</t>
-        </is>
-      </c>
-      <c r="F103" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G103" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H103" s="3" t="inlineStr">
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E103" s="13" t="inlineStr">
+        <is>
+          <t>32021С Аналог LM (копия оригинала) Xive 4.5 D=4.6 L=12.8 (арт. 45-2651), нерж. сталь, V.1</t>
+        </is>
+      </c>
+      <c r="F103" s="14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G103" s="14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H103" s="14" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I103" s="4" t="n">
-        <v>129</v>
-      </c>
-      <c r="J103" s="4" t="n">
-        <v>2</v>
+      <c r="I103" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="J103" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="K103" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P103" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="L103" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M103" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N103" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O103" s="4" t="n">
-        <v>68</v>
-      </c>
-      <c r="P103" s="4" t="n">
-        <v>49</v>
-      </c>
       <c r="Q103" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R103" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S103" s="5" t="inlineStr"/>
       <c r="T103" s="6" t="n"/>
       <c r="U103" s="6" t="n"/>
-      <c r="V103" s="4" t="n">
+      <c r="V103" s="4" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="inlineStr">
+        <is>
+          <t>Аналог</t>
+        </is>
+      </c>
+      <c r="B104" s="3" t="inlineStr">
+        <is>
+          <t>Разработка Lenmiriot</t>
+        </is>
+      </c>
+      <c r="C104" s="3" t="inlineStr">
+        <is>
+          <t>Xive</t>
+        </is>
+      </c>
+      <c r="D104" s="3" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E104" s="17" t="inlineStr">
+        <is>
+          <t>32331С Аналог LM (собств. разр.) Xive 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
+        </is>
+      </c>
+      <c r="F104" s="18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G104" s="18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H104" s="18" t="inlineStr">
+        <is>
+          <t>Версия 1</t>
+        </is>
+      </c>
+      <c r="I104" s="19" t="n">
+        <v>191</v>
+      </c>
+      <c r="J104" s="20" t="n">
+        <v>36</v>
+      </c>
+      <c r="K104" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="L104" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" s="4" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="7" t="n"/>
-      <c r="B104" s="7" t="n"/>
-      <c r="C104" s="7" t="n"/>
-      <c r="D104" s="7" t="n"/>
-      <c r="E104" s="7" t="n"/>
-      <c r="F104" s="7" t="n"/>
-      <c r="G104" s="7" t="n"/>
-      <c r="H104" s="7" t="n"/>
-      <c r="I104" s="7" t="n"/>
-      <c r="J104" s="7" t="n"/>
-      <c r="K104" s="7" t="n"/>
-      <c r="L104" s="7" t="n"/>
-      <c r="M104" s="7" t="n"/>
-      <c r="N104" s="7" t="n"/>
-      <c r="O104" s="7" t="n"/>
-      <c r="P104" s="7" t="n"/>
-      <c r="Q104" s="7" t="n"/>
-      <c r="R104" s="7" t="n"/>
-      <c r="S104" s="7" t="n"/>
-      <c r="T104" s="8" t="n"/>
-      <c r="U104" s="8" t="n"/>
-      <c r="V104" s="7" t="n"/>
+      <c r="N104" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="O104" s="4" t="n">
+        <v>139</v>
+      </c>
+      <c r="P104" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q104" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="R104" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="S104" s="5" t="inlineStr"/>
+      <c r="T104" s="6" t="n"/>
+      <c r="U104" s="6" t="n"/>
+      <c r="V104" s="4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" s="3" t="inlineStr">
-        <is>
-          <t>Аналог 3D</t>
-        </is>
-      </c>
-      <c r="B105" s="3" t="inlineStr">
+      <c r="A105" s="7" t="n"/>
+      <c r="B105" s="7" t="n"/>
+      <c r="C105" s="7" t="n"/>
+      <c r="D105" s="7" t="n"/>
+      <c r="E105" s="7" t="n"/>
+      <c r="F105" s="7" t="n"/>
+      <c r="G105" s="7" t="n"/>
+      <c r="H105" s="7" t="n"/>
+      <c r="I105" s="7" t="n"/>
+      <c r="J105" s="7" t="n"/>
+      <c r="K105" s="7" t="n"/>
+      <c r="L105" s="7" t="n"/>
+      <c r="M105" s="7" t="n"/>
+      <c r="N105" s="7" t="n"/>
+      <c r="O105" s="7" t="n"/>
+      <c r="P105" s="7" t="n"/>
+      <c r="Q105" s="7" t="n"/>
+      <c r="R105" s="7" t="n"/>
+      <c r="S105" s="7" t="n"/>
+      <c r="T105" s="8" t="n"/>
+      <c r="U105" s="8" t="n"/>
+      <c r="V105" s="7" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="inlineStr">
+        <is>
+          <t>Аналог</t>
+        </is>
+      </c>
+      <c r="B106" s="3" t="inlineStr">
         <is>
           <t>Разработка Lenmiriot</t>
         </is>
       </c>
-      <c r="C105" s="3" t="inlineStr">
-        <is>
-          <t>Alpha Bio Conical</t>
-        </is>
-      </c>
-      <c r="D105" s="3" t="inlineStr">
-        <is>
-          <t>Narrow</t>
-        </is>
-      </c>
-      <c r="E105" s="3" t="inlineStr">
-        <is>
-          <t>32125С_3D Аналог 3D LM (собств. разр.) Alpha Bio Conical Narrow D=4 L=12.5, нерж. сталь, V.1</t>
-        </is>
-      </c>
-      <c r="F105" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G105" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H105" s="3" t="inlineStr">
+      <c r="C106" s="3" t="inlineStr">
+        <is>
+          <t>Zimmer</t>
+        </is>
+      </c>
+      <c r="D106" s="3" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="E106" s="3" t="inlineStr">
+        <is>
+          <t>32395С Аналог LM (собств. разр.) Zimmer 3.5, нерж. сталь V.1</t>
+        </is>
+      </c>
+      <c r="F106" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G106" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H106" s="3" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I105" s="4" t="n">
-        <v>132</v>
-      </c>
-      <c r="J105" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" s="4" t="n">
-        <v>64</v>
-      </c>
-      <c r="L105" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="M105" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N105" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O105" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P105" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q105" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R105" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S105" s="5" t="inlineStr"/>
-      <c r="T105" s="6" t="n"/>
-      <c r="U105" s="6" t="n"/>
-      <c r="V105" s="4" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="7" t="n"/>
-      <c r="B106" s="7" t="n"/>
-      <c r="C106" s="7" t="n"/>
-      <c r="D106" s="7" t="n"/>
-      <c r="E106" s="7" t="n"/>
-      <c r="F106" s="7" t="n"/>
-      <c r="G106" s="7" t="n"/>
-      <c r="H106" s="7" t="n"/>
-      <c r="I106" s="7" t="n"/>
-      <c r="J106" s="7" t="n"/>
-      <c r="K106" s="7" t="n"/>
-      <c r="L106" s="7" t="n"/>
-      <c r="M106" s="7" t="n"/>
-      <c r="N106" s="7" t="n"/>
-      <c r="O106" s="7" t="n"/>
-      <c r="P106" s="7" t="n"/>
-      <c r="Q106" s="7" t="n"/>
-      <c r="R106" s="7" t="n"/>
-      <c r="S106" s="7" t="n"/>
-      <c r="T106" s="8" t="n"/>
-      <c r="U106" s="8" t="n"/>
-      <c r="V106" s="7" t="n"/>
+      <c r="I106" s="4" t="n">
+        <v>129</v>
+      </c>
+      <c r="J106" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K106" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="L106" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" s="4" t="n">
+        <v>68</v>
+      </c>
+      <c r="P106" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q106" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R106" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S106" s="5" t="inlineStr"/>
+      <c r="T106" s="6" t="n"/>
+      <c r="U106" s="6" t="n"/>
+      <c r="V106" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="inlineStr">
-        <is>
-          <t>Аналог 3D</t>
-        </is>
-      </c>
-      <c r="B107" s="3" t="inlineStr">
-        <is>
-          <t>Разработка Lenmiriot</t>
-        </is>
-      </c>
-      <c r="C107" s="3" t="inlineStr">
-        <is>
-          <t>Alpha Bio Internal</t>
-        </is>
-      </c>
-      <c r="D107" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E107" s="3" t="inlineStr">
-        <is>
-          <t>32011С_3D Аналог 3D LM (собств. разр.) Alpha Bio Internal D=4.2 L=12, нерж. сталь, V.2</t>
-        </is>
-      </c>
-      <c r="F107" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G107" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H107" s="3" t="inlineStr">
-        <is>
-          <t>Версия 2</t>
-        </is>
-      </c>
-      <c r="I107" s="4" t="n">
-        <v>56</v>
-      </c>
-      <c r="J107" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="K107" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="L107" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M107" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N107" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O107" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="P107" s="4" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q107" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R107" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="S107" s="5" t="inlineStr"/>
-      <c r="T107" s="6" t="n"/>
-      <c r="U107" s="6" t="n"/>
-      <c r="V107" s="4" t="n"/>
+      <c r="A107" s="7" t="n"/>
+      <c r="B107" s="7" t="n"/>
+      <c r="C107" s="7" t="n"/>
+      <c r="D107" s="7" t="n"/>
+      <c r="E107" s="7" t="n"/>
+      <c r="F107" s="7" t="n"/>
+      <c r="G107" s="7" t="n"/>
+      <c r="H107" s="7" t="n"/>
+      <c r="I107" s="7" t="n"/>
+      <c r="J107" s="7" t="n"/>
+      <c r="K107" s="7" t="n"/>
+      <c r="L107" s="7" t="n"/>
+      <c r="M107" s="7" t="n"/>
+      <c r="N107" s="7" t="n"/>
+      <c r="O107" s="7" t="n"/>
+      <c r="P107" s="7" t="n"/>
+      <c r="Q107" s="7" t="n"/>
+      <c r="R107" s="7" t="n"/>
+      <c r="S107" s="7" t="n"/>
+      <c r="T107" s="8" t="n"/>
+      <c r="U107" s="8" t="n"/>
+      <c r="V107" s="7" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
@@ -7072,17 +7073,17 @@
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>Alpha Bio Internal</t>
+          <t>Alpha Bio Conical</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>32011С_3D Аналог 3D LM (собств. разр.) Alpha Bio Internal D=5 L=13.5, нерж. сталь, V.1</t>
+          <t>32125С_3D Аналог 3D LM (собств. разр.) Alpha Bio Conical Narrow D=4 L=12.5, нерж. сталь, V.1</t>
         </is>
       </c>
       <c r="F108" s="3" t="inlineStr">
@@ -7101,16 +7102,16 @@
         </is>
       </c>
       <c r="I108" s="4" t="n">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="J108" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108" s="4" t="n">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="L108" s="4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M108" s="4" t="n">
         <v>0</v>
@@ -7122,10 +7123,10 @@
         <v>0</v>
       </c>
       <c r="P108" s="4" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="Q108" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R108" s="4" t="n">
         <v>0</v>
@@ -7172,17 +7173,17 @@
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>Ankylos</t>
+          <t>Alpha Bio Internal</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E110" s="3" t="inlineStr">
-        <is>
-          <t>32035С_3D Аналог 3D LM (собств. разр.) Ankylos C / X D=3.5 L=11, нерж. сталь, V.1</t>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E110" s="11" t="inlineStr">
+        <is>
+          <t>32011С_3D Аналог 3D LM (собств. разр.) Alpha Bio Internal D=4.2 L=12, нерж. сталь, V.2</t>
         </is>
       </c>
       <c r="F110" s="3" t="inlineStr">
@@ -7197,38 +7198,38 @@
       </c>
       <c r="H110" s="3" t="inlineStr">
         <is>
-          <t>Версия 1</t>
+          <t>Версия 2</t>
         </is>
       </c>
       <c r="I110" s="4" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="J110" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K110" s="4" t="n">
-        <v>6</v>
+        <v>28</v>
+      </c>
+      <c r="K110" s="12" t="n">
+        <v>2</v>
       </c>
       <c r="L110" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="M110" s="4" t="n">
-        <v>0</v>
+      <c r="M110" s="12" t="n">
+        <v>12</v>
       </c>
       <c r="N110" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O110" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P110" s="4" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Q110" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R110" s="4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S110" s="5" t="inlineStr"/>
       <c r="T110" s="6" t="n"/>
@@ -7248,17 +7249,17 @@
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>Ankylos</t>
+          <t>Alpha Bio Internal</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>--</t>
         </is>
       </c>
       <c r="E111" s="3" t="inlineStr">
         <is>
-          <t>32035С_3D Аналог 3D LM (собств. разр.) Ankylos C / X D=3.5 L=12, нерж. сталь, V.2</t>
+          <t>32011С_3D Аналог 3D LM (собств. разр.) Alpha Bio Internal D=5 L=13.5, нерж. сталь, V.1</t>
         </is>
       </c>
       <c r="F111" s="3" t="inlineStr">
@@ -7273,20 +7274,20 @@
       </c>
       <c r="H111" s="3" t="inlineStr">
         <is>
-          <t>Версия 2</t>
+          <t>Версия 1</t>
         </is>
       </c>
       <c r="I111" s="4" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J111" s="4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K111" s="4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L111" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M111" s="4" t="n">
         <v>0</v>
@@ -7295,23 +7296,21 @@
         <v>0</v>
       </c>
       <c r="O111" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="P111" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q111" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R111" s="4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S111" s="5" t="inlineStr"/>
       <c r="T111" s="6" t="n"/>
       <c r="U111" s="6" t="n"/>
-      <c r="V111" s="4" t="n">
-        <v>2</v>
-      </c>
+      <c r="V111" s="4" t="n"/>
     </row>
     <row r="112">
       <c r="A112" s="7" t="n"/>
@@ -7350,17 +7349,17 @@
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>Astra Tech</t>
+          <t>Ankylos</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
         <is>
-          <t>3.5/4.0</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t>32006С_3D Аналог 3D LM (собств. разр.) Astra Tech 3.5/4.0 D=3.5 L=12, нерж. сталь, V.2</t>
+          <t>32035С_3D Аналог 3D LM (собств. разр.) Ankylos C / X D=3.5 L=11, нерж. сталь, V.1</t>
         </is>
       </c>
       <c r="F113" s="3" t="inlineStr">
@@ -7375,17 +7374,17 @@
       </c>
       <c r="H113" s="3" t="inlineStr">
         <is>
-          <t>Версия 2</t>
+          <t>Версия 1</t>
         </is>
       </c>
       <c r="I113" s="4" t="n">
-        <v>548</v>
+        <v>6</v>
       </c>
       <c r="J113" s="4" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="K113" s="4" t="n">
-        <v>349</v>
+        <v>6</v>
       </c>
       <c r="L113" s="4" t="n">
         <v>0</v>
@@ -7394,26 +7393,24 @@
         <v>0</v>
       </c>
       <c r="N113" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O113" s="4" t="n">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="P113" s="4" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="Q113" s="4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R113" s="4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S113" s="5" t="inlineStr"/>
       <c r="T113" s="6" t="n"/>
       <c r="U113" s="6" t="n"/>
-      <c r="V113" s="4" t="n">
-        <v>7</v>
-      </c>
+      <c r="V113" s="4" t="n"/>
     </row>
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
@@ -7428,17 +7425,17 @@
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>Astra Tech</t>
+          <t>Ankylos</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
         <is>
-          <t>4.5/5.0</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>32007С_3D Аналог 3D LM (собств. разр.) Astra Tech 4.5/5.0 D=5 L=13, нерж. сталь, V.2</t>
+          <t>32035С_3D Аналог 3D LM (собств. разр.) Ankylos C / X D=3.5 L=12, нерж. сталь, V.2</t>
         </is>
       </c>
       <c r="F114" s="3" t="inlineStr">
@@ -7457,13 +7454,13 @@
         </is>
       </c>
       <c r="I114" s="4" t="n">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="J114" s="4" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="K114" s="4" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="L114" s="4" t="n">
         <v>0</v>
@@ -7475,21 +7472,23 @@
         <v>0</v>
       </c>
       <c r="O114" s="4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="P114" s="4" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="Q114" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R114" s="4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="S114" s="5" t="inlineStr"/>
       <c r="T114" s="6" t="n"/>
       <c r="U114" s="6" t="n"/>
-      <c r="V114" s="4" t="n"/>
+      <c r="V114" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="7" t="n"/>
@@ -7528,17 +7527,17 @@
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>Biomet 3i Certain</t>
+          <t>Astra Tech</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.5/4.0</t>
         </is>
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>32041_3D Аналог 3D LM (собств. разр.) Biomet 3i Certain 3.4 D=3.5 L=12, нерж. сталь, V.2</t>
+          <t>32006С_3D Аналог 3D LM (собств. разр.) Astra Tech 3.5/4.0 D=3.5 L=12, нерж. сталь, V.2</t>
         </is>
       </c>
       <c r="F116" s="3" t="inlineStr">
@@ -7557,13 +7556,13 @@
         </is>
       </c>
       <c r="I116" s="4" t="n">
-        <v>236</v>
+        <v>528</v>
       </c>
       <c r="J116" s="4" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="K116" s="4" t="n">
-        <v>148</v>
+        <v>329</v>
       </c>
       <c r="L116" s="4" t="n">
         <v>0</v>
@@ -7575,249 +7574,309 @@
         <v>0</v>
       </c>
       <c r="O116" s="4" t="n">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="P116" s="4" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Q116" s="4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="R116" s="4" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="S116" s="5" t="inlineStr"/>
       <c r="T116" s="6" t="n"/>
       <c r="U116" s="6" t="n"/>
       <c r="V116" s="4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="inlineStr">
+        <is>
+          <t>Аналог 3D</t>
+        </is>
+      </c>
+      <c r="B117" s="3" t="inlineStr">
+        <is>
+          <t>Разработка Lenmiriot</t>
+        </is>
+      </c>
+      <c r="C117" s="3" t="inlineStr">
+        <is>
+          <t>Astra Tech</t>
+        </is>
+      </c>
+      <c r="D117" s="3" t="inlineStr">
+        <is>
+          <t>4.5/5.0</t>
+        </is>
+      </c>
+      <c r="E117" s="3" t="inlineStr">
+        <is>
+          <t>32007С_3D Аналог 3D LM (собств. разр.) Astra Tech 4.5/5.0 D=5 L=13, нерж. сталь, V.2</t>
+        </is>
+      </c>
+      <c r="F117" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G117" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H117" s="3" t="inlineStr">
+        <is>
+          <t>Версия 2</t>
+        </is>
+      </c>
+      <c r="I117" s="4" t="n">
+        <v>74</v>
+      </c>
+      <c r="J117" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="K117" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="L117" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" s="4" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="7" t="n"/>
-      <c r="B117" s="7" t="n"/>
-      <c r="C117" s="7" t="n"/>
-      <c r="D117" s="7" t="n"/>
-      <c r="E117" s="7" t="n"/>
-      <c r="F117" s="7" t="n"/>
-      <c r="G117" s="7" t="n"/>
-      <c r="H117" s="7" t="n"/>
-      <c r="I117" s="7" t="n"/>
-      <c r="J117" s="7" t="n"/>
-      <c r="K117" s="7" t="n"/>
-      <c r="L117" s="7" t="n"/>
-      <c r="M117" s="7" t="n"/>
-      <c r="N117" s="7" t="n"/>
-      <c r="O117" s="7" t="n"/>
-      <c r="P117" s="7" t="n"/>
-      <c r="Q117" s="7" t="n"/>
-      <c r="R117" s="7" t="n"/>
-      <c r="S117" s="7" t="n"/>
-      <c r="T117" s="8" t="n"/>
-      <c r="U117" s="8" t="n"/>
-      <c r="V117" s="7" t="n"/>
+      <c r="N117" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="P117" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q117" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="R117" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="S117" s="5" t="inlineStr"/>
+      <c r="T117" s="6" t="n"/>
+      <c r="U117" s="6" t="n"/>
+      <c r="V117" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" s="3" t="inlineStr">
+      <c r="A118" s="7" t="n"/>
+      <c r="B118" s="7" t="n"/>
+      <c r="C118" s="7" t="n"/>
+      <c r="D118" s="7" t="n"/>
+      <c r="E118" s="7" t="n"/>
+      <c r="F118" s="7" t="n"/>
+      <c r="G118" s="7" t="n"/>
+      <c r="H118" s="7" t="n"/>
+      <c r="I118" s="7" t="n"/>
+      <c r="J118" s="7" t="n"/>
+      <c r="K118" s="7" t="n"/>
+      <c r="L118" s="7" t="n"/>
+      <c r="M118" s="7" t="n"/>
+      <c r="N118" s="7" t="n"/>
+      <c r="O118" s="7" t="n"/>
+      <c r="P118" s="7" t="n"/>
+      <c r="Q118" s="7" t="n"/>
+      <c r="R118" s="7" t="n"/>
+      <c r="S118" s="7" t="n"/>
+      <c r="T118" s="8" t="n"/>
+      <c r="U118" s="8" t="n"/>
+      <c r="V118" s="7" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="inlineStr">
         <is>
           <t>Аналог 3D</t>
         </is>
       </c>
-      <c r="B118" s="3" t="inlineStr">
+      <c r="B119" s="3" t="inlineStr">
         <is>
           <t>Разработка Lenmiriot</t>
         </is>
       </c>
-      <c r="C118" s="3" t="inlineStr">
+      <c r="C119" s="3" t="inlineStr">
+        <is>
+          <t>Biomet 3i Certain</t>
+        </is>
+      </c>
+      <c r="D119" s="3" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="E119" s="3" t="inlineStr">
+        <is>
+          <t>32041_3D Аналог 3D LM (собств. разр.) Biomet 3i Certain 3.4 D=3.5 L=12, нерж. сталь, V.2</t>
+        </is>
+      </c>
+      <c r="F119" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G119" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H119" s="3" t="inlineStr">
+        <is>
+          <t>Версия 2</t>
+        </is>
+      </c>
+      <c r="I119" s="4" t="n">
+        <v>236</v>
+      </c>
+      <c r="J119" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" s="4" t="n">
+        <v>148</v>
+      </c>
+      <c r="L119" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="P119" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q119" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S119" s="5" t="inlineStr"/>
+      <c r="T119" s="6" t="n"/>
+      <c r="U119" s="6" t="n"/>
+      <c r="V119" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="7" t="n"/>
+      <c r="B120" s="7" t="n"/>
+      <c r="C120" s="7" t="n"/>
+      <c r="D120" s="7" t="n"/>
+      <c r="E120" s="7" t="n"/>
+      <c r="F120" s="7" t="n"/>
+      <c r="G120" s="7" t="n"/>
+      <c r="H120" s="7" t="n"/>
+      <c r="I120" s="7" t="n"/>
+      <c r="J120" s="7" t="n"/>
+      <c r="K120" s="7" t="n"/>
+      <c r="L120" s="7" t="n"/>
+      <c r="M120" s="7" t="n"/>
+      <c r="N120" s="7" t="n"/>
+      <c r="O120" s="7" t="n"/>
+      <c r="P120" s="7" t="n"/>
+      <c r="Q120" s="7" t="n"/>
+      <c r="R120" s="7" t="n"/>
+      <c r="S120" s="7" t="n"/>
+      <c r="T120" s="8" t="n"/>
+      <c r="U120" s="8" t="n"/>
+      <c r="V120" s="7" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="inlineStr">
+        <is>
+          <t>Аналог 3D</t>
+        </is>
+      </c>
+      <c r="B121" s="3" t="inlineStr">
+        <is>
+          <t>Разработка Lenmiriot</t>
+        </is>
+      </c>
+      <c r="C121" s="3" t="inlineStr">
         <is>
           <t>Implantium</t>
         </is>
       </c>
-      <c r="D118" s="3" t="inlineStr">
+      <c r="D121" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="E118" s="3" t="inlineStr">
+      <c r="E121" s="21" t="inlineStr">
         <is>
           <t>32000С_3D Аналог 3D LM (собств. разр.) Implantium D=3.8/4.5 L=12, нерж. сталь, V.2</t>
         </is>
       </c>
-      <c r="F118" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G118" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H118" s="3" t="inlineStr">
+      <c r="F121" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G121" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H121" s="3" t="inlineStr">
         <is>
           <t>Версия 2</t>
         </is>
       </c>
-      <c r="I118" s="4" t="n">
-        <v>283</v>
-      </c>
-      <c r="J118" s="4" t="n">
-        <v>203</v>
-      </c>
-      <c r="K118" s="4" t="n">
-        <v>68</v>
-      </c>
-      <c r="L118" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M118" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="N118" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="O118" s="4" t="n">
-        <v>205</v>
-      </c>
-      <c r="P118" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q118" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="R118" s="4" t="n">
-        <v>76</v>
-      </c>
-      <c r="S118" s="5" t="inlineStr"/>
-      <c r="T118" s="6" t="n"/>
-      <c r="U118" s="6" t="n"/>
-      <c r="V118" s="4" t="n">
+      <c r="I121" s="22" t="n">
+        <v>246</v>
+      </c>
+      <c r="J121" s="22" t="n">
+        <v>265</v>
+      </c>
+      <c r="K121" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="N121" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="O121" s="4" t="n">
+        <v>195</v>
+      </c>
+      <c r="P121" s="4" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q121" s="4" t="n">
+        <v>110</v>
+      </c>
+      <c r="R121" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="S121" s="5" t="inlineStr">
+        <is>
+          <t>07-17.02</t>
+        </is>
+      </c>
+      <c r="T121" s="6" t="n"/>
+      <c r="U121" s="6" t="n"/>
+      <c r="V121" s="4" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="7" t="n"/>
-      <c r="B119" s="7" t="n"/>
-      <c r="C119" s="7" t="n"/>
-      <c r="D119" s="7" t="n"/>
-      <c r="E119" s="7" t="n"/>
-      <c r="F119" s="7" t="n"/>
-      <c r="G119" s="7" t="n"/>
-      <c r="H119" s="7" t="n"/>
-      <c r="I119" s="7" t="n"/>
-      <c r="J119" s="7" t="n"/>
-      <c r="K119" s="7" t="n"/>
-      <c r="L119" s="7" t="n"/>
-      <c r="M119" s="7" t="n"/>
-      <c r="N119" s="7" t="n"/>
-      <c r="O119" s="7" t="n"/>
-      <c r="P119" s="7" t="n"/>
-      <c r="Q119" s="7" t="n"/>
-      <c r="R119" s="7" t="n"/>
-      <c r="S119" s="7" t="n"/>
-      <c r="T119" s="8" t="n"/>
-      <c r="U119" s="8" t="n"/>
-      <c r="V119" s="7" t="n"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="3" t="inlineStr">
-        <is>
-          <t>Аналог 3D</t>
-        </is>
-      </c>
-      <c r="B120" s="3" t="inlineStr">
-        <is>
-          <t>Разработка Lenmiriot</t>
-        </is>
-      </c>
-      <c r="C120" s="3" t="inlineStr">
-        <is>
-          <t>MegaGen AnyOne</t>
-        </is>
-      </c>
-      <c r="D120" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E120" s="3" t="inlineStr">
-        <is>
-          <t>32065С_3D Аналог 3D LM (собств. разр.) MegaGen AnyOne D=4 L=12, нерж. сталь, V.2</t>
-        </is>
-      </c>
-      <c r="F120" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G120" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H120" s="3" t="inlineStr">
-        <is>
-          <t>Версия 2</t>
-        </is>
-      </c>
-      <c r="I120" s="4" t="n">
-        <v>172</v>
-      </c>
-      <c r="J120" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="K120" s="4" t="n">
-        <v>90</v>
-      </c>
-      <c r="L120" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M120" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N120" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O120" s="4" t="n">
-        <v>51</v>
-      </c>
-      <c r="P120" s="4" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q120" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="R120" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="S120" s="5" t="inlineStr"/>
-      <c r="T120" s="6" t="n"/>
-      <c r="U120" s="6" t="n"/>
-      <c r="V120" s="4" t="n"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="7" t="n"/>
-      <c r="B121" s="7" t="n"/>
-      <c r="C121" s="7" t="n"/>
-      <c r="D121" s="7" t="n"/>
-      <c r="E121" s="7" t="n"/>
-      <c r="F121" s="7" t="n"/>
-      <c r="G121" s="7" t="n"/>
-      <c r="H121" s="7" t="n"/>
-      <c r="I121" s="7" t="n"/>
-      <c r="J121" s="7" t="n"/>
-      <c r="K121" s="7" t="n"/>
-      <c r="L121" s="7" t="n"/>
-      <c r="M121" s="7" t="n"/>
-      <c r="N121" s="7" t="n"/>
-      <c r="O121" s="7" t="n"/>
-      <c r="P121" s="7" t="n"/>
-      <c r="Q121" s="7" t="n"/>
-      <c r="R121" s="7" t="n"/>
-      <c r="S121" s="7" t="n"/>
-      <c r="T121" s="8" t="n"/>
-      <c r="U121" s="8" t="n"/>
-      <c r="V121" s="7" t="n"/>
     </row>
     <row r="122">
       <c r="A122" s="3" t="inlineStr">
@@ -7832,248 +7891,194 @@
       </c>
       <c r="C122" s="3" t="inlineStr">
         <is>
-          <t>MegaGen AnyRidge</t>
+          <t>Implantium</t>
         </is>
       </c>
       <c r="D122" s="3" t="inlineStr">
         <is>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="E122" s="3" t="inlineStr">
+        <is>
+          <t>32001С_3D Аналог 3D LM (собств. разр.) Implantium 3.4 D=3.4 L=12, нерж. сталь, V.2</t>
+        </is>
+      </c>
+      <c r="F122" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G122" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H122" s="3" t="inlineStr">
+        <is>
+          <t>Версия 2</t>
+        </is>
+      </c>
+      <c r="I122" s="4" t="n">
+        <v>174</v>
+      </c>
+      <c r="J122" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" s="4" t="n">
+        <v>174</v>
+      </c>
+      <c r="L122" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R122" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S122" s="5" t="inlineStr"/>
+      <c r="T122" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="U122" s="6" t="n"/>
+      <c r="V122" s="4" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="7" t="n"/>
+      <c r="B123" s="7" t="n"/>
+      <c r="C123" s="7" t="n"/>
+      <c r="D123" s="7" t="n"/>
+      <c r="E123" s="7" t="n"/>
+      <c r="F123" s="7" t="n"/>
+      <c r="G123" s="7" t="n"/>
+      <c r="H123" s="7" t="n"/>
+      <c r="I123" s="7" t="n"/>
+      <c r="J123" s="7" t="n"/>
+      <c r="K123" s="7" t="n"/>
+      <c r="L123" s="7" t="n"/>
+      <c r="M123" s="7" t="n"/>
+      <c r="N123" s="7" t="n"/>
+      <c r="O123" s="7" t="n"/>
+      <c r="P123" s="7" t="n"/>
+      <c r="Q123" s="7" t="n"/>
+      <c r="R123" s="7" t="n"/>
+      <c r="S123" s="7" t="n"/>
+      <c r="T123" s="8" t="n"/>
+      <c r="U123" s="8" t="n"/>
+      <c r="V123" s="7" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="inlineStr">
+        <is>
+          <t>Аналог 3D</t>
+        </is>
+      </c>
+      <c r="B124" s="3" t="inlineStr">
+        <is>
+          <t>Разработка Lenmiriot</t>
+        </is>
+      </c>
+      <c r="C124" s="3" t="inlineStr">
+        <is>
+          <t>MegaGen AnyOne</t>
+        </is>
+      </c>
+      <c r="D124" s="3" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="E122" s="3" t="inlineStr">
-        <is>
-          <t>32029С_3D Аналог 3D LM (собств. разр.) MegaGen AnyRidge D=4 L=11.5, нерж. сталь, V.1</t>
-        </is>
-      </c>
-      <c r="F122" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G122" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H122" s="3" t="inlineStr">
-        <is>
-          <t>Версия 1</t>
-        </is>
-      </c>
-      <c r="I122" s="4" t="n">
-        <v>145</v>
-      </c>
-      <c r="J122" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="K122" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="L122" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M122" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N122" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O122" s="4" t="n">
-        <v>27</v>
-      </c>
-      <c r="P122" s="4" t="n">
-        <v>69</v>
-      </c>
-      <c r="Q122" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="R122" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="S122" s="5" t="inlineStr"/>
-      <c r="T122" s="6" t="n"/>
-      <c r="U122" s="6" t="n"/>
-      <c r="V122" s="4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="3" t="inlineStr">
-        <is>
-          <t>Аналог 3D</t>
-        </is>
-      </c>
-      <c r="B123" s="3" t="inlineStr">
-        <is>
-          <t>Разработка Lenmiriot</t>
-        </is>
-      </c>
-      <c r="C123" s="3" t="inlineStr">
-        <is>
-          <t>MegaGen AnyRidge</t>
-        </is>
-      </c>
-      <c r="D123" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E123" s="3" t="inlineStr">
-        <is>
-          <t>32029С_3D Аналог 3D LM (собств. разр.) MegaGen AnyRidge D=4 L=12, нерж. сталь, V.2</t>
-        </is>
-      </c>
-      <c r="F123" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G123" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H123" s="3" t="inlineStr">
+      <c r="E124" s="3" t="inlineStr">
+        <is>
+          <t>32065С_3D Аналог 3D LM (собств. разр.) MegaGen AnyOne D=4 L=12, нерж. сталь, V.2</t>
+        </is>
+      </c>
+      <c r="F124" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G124" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H124" s="3" t="inlineStr">
         <is>
           <t>Версия 2</t>
         </is>
       </c>
-      <c r="I123" s="4" t="n">
-        <v>179</v>
-      </c>
-      <c r="J123" s="4" t="n">
-        <v>62</v>
-      </c>
-      <c r="K123" s="4" t="n">
-        <v>62</v>
-      </c>
-      <c r="L123" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M123" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="N123" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="O123" s="4" t="n">
-        <v>62</v>
-      </c>
-      <c r="P123" s="4" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q123" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="R123" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="S123" s="5" t="inlineStr"/>
-      <c r="T123" s="6" t="n"/>
-      <c r="U123" s="6" t="n"/>
-      <c r="V123" s="4" t="n"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="7" t="n"/>
-      <c r="B124" s="7" t="n"/>
-      <c r="C124" s="7" t="n"/>
-      <c r="D124" s="7" t="n"/>
-      <c r="E124" s="7" t="n"/>
-      <c r="F124" s="7" t="n"/>
-      <c r="G124" s="7" t="n"/>
-      <c r="H124" s="7" t="n"/>
-      <c r="I124" s="7" t="n"/>
-      <c r="J124" s="7" t="n"/>
-      <c r="K124" s="7" t="n"/>
-      <c r="L124" s="7" t="n"/>
-      <c r="M124" s="7" t="n"/>
-      <c r="N124" s="7" t="n"/>
-      <c r="O124" s="7" t="n"/>
-      <c r="P124" s="7" t="n"/>
-      <c r="Q124" s="7" t="n"/>
-      <c r="R124" s="7" t="n"/>
-      <c r="S124" s="7" t="n"/>
-      <c r="T124" s="8" t="n"/>
-      <c r="U124" s="8" t="n"/>
-      <c r="V124" s="7" t="n"/>
+      <c r="I124" s="4" t="n">
+        <v>155</v>
+      </c>
+      <c r="J124" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="K124" s="4" t="n">
+        <v>65</v>
+      </c>
+      <c r="L124" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="P124" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q124" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="R124" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="S124" s="5" t="inlineStr"/>
+      <c r="T124" s="6" t="n"/>
+      <c r="U124" s="6" t="n"/>
+      <c r="V124" s="4" t="n"/>
     </row>
     <row r="125">
-      <c r="A125" s="3" t="inlineStr">
-        <is>
-          <t>Аналог 3D</t>
-        </is>
-      </c>
-      <c r="B125" s="3" t="inlineStr">
-        <is>
-          <t>Разработка Lenmiriot</t>
-        </is>
-      </c>
-      <c r="C125" s="3" t="inlineStr">
-        <is>
-          <t>Mis</t>
-        </is>
-      </c>
-      <c r="D125" s="3" t="inlineStr">
-        <is>
-          <t>NP</t>
-        </is>
-      </c>
-      <c r="E125" s="13" t="inlineStr">
-        <is>
-          <t>32012С_3D Аналог 3D LM (собств. разр.) Mis NP (3.3) D=3.5 L=12, нерж. сталь, V.2</t>
-        </is>
-      </c>
-      <c r="F125" s="14" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G125" s="14" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H125" s="14" t="inlineStr">
-        <is>
-          <t>Версия 2</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="n">
-        <v>125</v>
-      </c>
-      <c r="J125" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" s="4" t="n">
-        <v>67</v>
-      </c>
-      <c r="L125" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M125" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N125" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O125" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="P125" s="4" t="n">
-        <v>48</v>
-      </c>
-      <c r="Q125" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R125" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S125" s="5" t="inlineStr"/>
-      <c r="T125" s="6" t="n"/>
-      <c r="U125" s="6" t="n"/>
-      <c r="V125" s="4" t="n">
-        <v>10</v>
-      </c>
+      <c r="A125" s="7" t="n"/>
+      <c r="B125" s="7" t="n"/>
+      <c r="C125" s="7" t="n"/>
+      <c r="D125" s="7" t="n"/>
+      <c r="E125" s="7" t="n"/>
+      <c r="F125" s="7" t="n"/>
+      <c r="G125" s="7" t="n"/>
+      <c r="H125" s="7" t="n"/>
+      <c r="I125" s="7" t="n"/>
+      <c r="J125" s="7" t="n"/>
+      <c r="K125" s="7" t="n"/>
+      <c r="L125" s="7" t="n"/>
+      <c r="M125" s="7" t="n"/>
+      <c r="N125" s="7" t="n"/>
+      <c r="O125" s="7" t="n"/>
+      <c r="P125" s="7" t="n"/>
+      <c r="Q125" s="7" t="n"/>
+      <c r="R125" s="7" t="n"/>
+      <c r="S125" s="7" t="n"/>
+      <c r="T125" s="8" t="n"/>
+      <c r="U125" s="8" t="n"/>
+      <c r="V125" s="7" t="n"/>
     </row>
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
@@ -8088,45 +8093,45 @@
       </c>
       <c r="C126" s="3" t="inlineStr">
         <is>
-          <t>Mis</t>
+          <t>MegaGen AnyRidge</t>
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr">
         <is>
-          <t>NP</t>
-        </is>
-      </c>
-      <c r="E126" s="17" t="inlineStr">
-        <is>
-          <t>32012С_3D Аналог 3D LM (собств. разр.) Mis NP (3.3) D=3.6 L=11, нерж. сталь, V.1</t>
-        </is>
-      </c>
-      <c r="F126" s="18" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G126" s="18" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H126" s="18" t="inlineStr">
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E126" s="3" t="inlineStr">
+        <is>
+          <t>32029С_3D Аналог 3D LM (собств. разр.) MegaGen AnyRidge D=4 L=11.5, нерж. сталь, V.1</t>
+        </is>
+      </c>
+      <c r="F126" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G126" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H126" s="3" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I126" s="19" t="n">
-        <v>121</v>
-      </c>
-      <c r="J126" s="20" t="n">
-        <v>0</v>
+      <c r="I126" s="4" t="n">
+        <v>149</v>
+      </c>
+      <c r="J126" s="4" t="n">
+        <v>12</v>
       </c>
       <c r="K126" s="4" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="L126" s="4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M126" s="4" t="n">
         <v>0</v>
@@ -8135,21 +8140,23 @@
         <v>0</v>
       </c>
       <c r="O126" s="4" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="P126" s="4" t="n">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Q126" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R126" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S126" s="5" t="inlineStr"/>
       <c r="T126" s="6" t="n"/>
       <c r="U126" s="6" t="n"/>
-      <c r="V126" s="4" t="n"/>
+      <c r="V126" s="4" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
@@ -8164,63 +8171,63 @@
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>Mis</t>
+          <t>MegaGen AnyRidge</t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
         <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="E127" s="13" t="inlineStr">
-        <is>
-          <t>32013С_3D Аналог 3D LM (собств. разр.) Mis SP (3.75/4.2) D=4 L=12, нерж. сталь, V.2</t>
-        </is>
-      </c>
-      <c r="F127" s="14" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G127" s="14" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H127" s="14" t="inlineStr">
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E127" s="3" t="inlineStr">
+        <is>
+          <t>32029С_3D Аналог 3D LM (собств. разр.) MegaGen AnyRidge D=4 L=12, нерж. сталь, V.2</t>
+        </is>
+      </c>
+      <c r="F127" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G127" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H127" s="3" t="inlineStr">
         <is>
           <t>Версия 2</t>
         </is>
       </c>
-      <c r="I127" s="15" t="n">
-        <v>192</v>
-      </c>
-      <c r="J127" s="16" t="n">
-        <v>80</v>
+      <c r="I127" s="4" t="n">
+        <v>171</v>
+      </c>
+      <c r="J127" s="4" t="n">
+        <v>65</v>
       </c>
       <c r="K127" s="4" t="n">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L127" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M127" s="4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N127" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="O127" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="P127" s="4" t="n">
         <v>55</v>
-      </c>
-      <c r="O127" s="4" t="n">
-        <v>117</v>
-      </c>
-      <c r="P127" s="4" t="n">
-        <v>48</v>
       </c>
       <c r="Q127" s="4" t="n">
         <v>15</v>
       </c>
       <c r="R127" s="4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S127" s="5" t="inlineStr"/>
       <c r="T127" s="6" t="n"/>
@@ -8228,80 +8235,28 @@
       <c r="V127" s="4" t="n"/>
     </row>
     <row r="128">
-      <c r="A128" s="3" t="inlineStr">
-        <is>
-          <t>Аналог 3D</t>
-        </is>
-      </c>
-      <c r="B128" s="3" t="inlineStr">
-        <is>
-          <t>Разработка Lenmiriot</t>
-        </is>
-      </c>
-      <c r="C128" s="3" t="inlineStr">
-        <is>
-          <t>Mis</t>
-        </is>
-      </c>
-      <c r="D128" s="3" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="E128" s="17" t="inlineStr">
-        <is>
-          <t>32013С_3D Аналог 3D LM (собств. разр.) Mis SP (3.75/4.2) D=5 L=13.5, нерж. сталь, V.1</t>
-        </is>
-      </c>
-      <c r="F128" s="18" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G128" s="18" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H128" s="18" t="inlineStr">
-        <is>
-          <t>Версия 1</t>
-        </is>
-      </c>
-      <c r="I128" s="19" t="n">
-        <v>12</v>
-      </c>
-      <c r="J128" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="L128" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="M128" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N128" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O128" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P128" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q128" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R128" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S128" s="5" t="inlineStr"/>
-      <c r="T128" s="6" t="n"/>
-      <c r="U128" s="6" t="n"/>
-      <c r="V128" s="4" t="n"/>
+      <c r="A128" s="7" t="n"/>
+      <c r="B128" s="7" t="n"/>
+      <c r="C128" s="7" t="n"/>
+      <c r="D128" s="7" t="n"/>
+      <c r="E128" s="7" t="n"/>
+      <c r="F128" s="7" t="n"/>
+      <c r="G128" s="7" t="n"/>
+      <c r="H128" s="7" t="n"/>
+      <c r="I128" s="7" t="n"/>
+      <c r="J128" s="7" t="n"/>
+      <c r="K128" s="7" t="n"/>
+      <c r="L128" s="7" t="n"/>
+      <c r="M128" s="7" t="n"/>
+      <c r="N128" s="7" t="n"/>
+      <c r="O128" s="7" t="n"/>
+      <c r="P128" s="7" t="n"/>
+      <c r="Q128" s="7" t="n"/>
+      <c r="R128" s="7" t="n"/>
+      <c r="S128" s="7" t="n"/>
+      <c r="T128" s="8" t="n"/>
+      <c r="U128" s="8" t="n"/>
+      <c r="V128" s="7" t="n"/>
     </row>
     <row r="129">
       <c r="A129" s="3" t="inlineStr">
@@ -8321,12 +8276,12 @@
       </c>
       <c r="D129" s="3" t="inlineStr">
         <is>
-          <t>WP</t>
+          <t>NP</t>
         </is>
       </c>
       <c r="E129" s="13" t="inlineStr">
         <is>
-          <t>32014С_3D Аналог 3D LM (собств. разр.) Mis WP (5.0/6.0) D=4.7 L=12, нерж. сталь, V.1</t>
+          <t>32012С_3D Аналог 3D LM (собств. разр.) Mis NP (3.3) D=3.5 L=12, нерж. сталь, V.2</t>
         </is>
       </c>
       <c r="F129" s="14" t="inlineStr">
@@ -8341,17 +8296,17 @@
       </c>
       <c r="H129" s="14" t="inlineStr">
         <is>
-          <t>Версия 1</t>
+          <t>Версия 2</t>
         </is>
       </c>
       <c r="I129" s="15" t="n">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="J129" s="16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K129" s="4" t="n">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="L129" s="4" t="n">
         <v>0</v>
@@ -8363,13 +8318,13 @@
         <v>0</v>
       </c>
       <c r="O129" s="4" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="P129" s="4" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="Q129" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R129" s="4" t="n">
         <v>0</v>
@@ -8397,12 +8352,12 @@
       </c>
       <c r="D130" s="3" t="inlineStr">
         <is>
-          <t>WP</t>
+          <t>NP</t>
         </is>
       </c>
       <c r="E130" s="17" t="inlineStr">
         <is>
-          <t>32014С_3D Аналог 3D LM (собств. разр.) Mis WP (5.0/6.0) D=4.7 L=12, нерж. сталь, V.2</t>
+          <t>32012С_3D Аналог 3D LM (собств. разр.) Mis NP (3.3) D=3.6 L=11, нерж. сталь, V.1</t>
         </is>
       </c>
       <c r="F130" s="18" t="inlineStr">
@@ -8417,20 +8372,20 @@
       </c>
       <c r="H130" s="18" t="inlineStr">
         <is>
-          <t>Версия 2</t>
+          <t>Версия 1</t>
         </is>
       </c>
       <c r="I130" s="19" t="n">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c r="J130" s="20" t="n">
         <v>0</v>
       </c>
       <c r="K130" s="4" t="n">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="L130" s="4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M130" s="4" t="n">
         <v>0</v>
@@ -8439,10 +8394,10 @@
         <v>0</v>
       </c>
       <c r="O130" s="4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P130" s="4" t="n">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="Q130" s="4" t="n">
         <v>0</v>
@@ -8456,28 +8411,84 @@
       <c r="V130" s="4" t="n"/>
     </row>
     <row r="131">
-      <c r="A131" s="7" t="n"/>
-      <c r="B131" s="7" t="n"/>
-      <c r="C131" s="7" t="n"/>
-      <c r="D131" s="7" t="n"/>
-      <c r="E131" s="7" t="n"/>
-      <c r="F131" s="7" t="n"/>
-      <c r="G131" s="7" t="n"/>
-      <c r="H131" s="7" t="n"/>
-      <c r="I131" s="7" t="n"/>
-      <c r="J131" s="7" t="n"/>
-      <c r="K131" s="7" t="n"/>
-      <c r="L131" s="7" t="n"/>
-      <c r="M131" s="7" t="n"/>
-      <c r="N131" s="7" t="n"/>
-      <c r="O131" s="7" t="n"/>
-      <c r="P131" s="7" t="n"/>
-      <c r="Q131" s="7" t="n"/>
-      <c r="R131" s="7" t="n"/>
-      <c r="S131" s="7" t="n"/>
-      <c r="T131" s="8" t="n"/>
-      <c r="U131" s="8" t="n"/>
-      <c r="V131" s="7" t="n"/>
+      <c r="A131" s="3" t="inlineStr">
+        <is>
+          <t>Аналог 3D</t>
+        </is>
+      </c>
+      <c r="B131" s="3" t="inlineStr">
+        <is>
+          <t>Разработка Lenmiriot</t>
+        </is>
+      </c>
+      <c r="C131" s="3" t="inlineStr">
+        <is>
+          <t>Mis</t>
+        </is>
+      </c>
+      <c r="D131" s="3" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="E131" s="13" t="inlineStr">
+        <is>
+          <t>32013С_3D Аналог 3D LM (собств. разр.) Mis SP (3.75/4.2) D=4 L=12, нерж. сталь, V.2</t>
+        </is>
+      </c>
+      <c r="F131" s="14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G131" s="14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H131" s="14" t="inlineStr">
+        <is>
+          <t>Версия 2</t>
+        </is>
+      </c>
+      <c r="I131" s="15" t="n">
+        <v>189</v>
+      </c>
+      <c r="J131" s="16" t="n">
+        <v>83</v>
+      </c>
+      <c r="K131" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="L131" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N131" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="O131" s="4" t="n">
+        <v>117</v>
+      </c>
+      <c r="P131" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q131" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="R131" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="S131" s="5" t="inlineStr">
+        <is>
+          <t>11-14.02</t>
+        </is>
+      </c>
+      <c r="T131" s="6" t="n"/>
+      <c r="U131" s="6" t="n"/>
+      <c r="V131" s="4" t="n"/>
     </row>
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
@@ -8492,7 +8503,7 @@
       </c>
       <c r="C132" s="3" t="inlineStr">
         <is>
-          <t>Mis C1 (Conical)</t>
+          <t>Mis</t>
         </is>
       </c>
       <c r="D132" s="3" t="inlineStr">
@@ -8500,37 +8511,37 @@
           <t>SP</t>
         </is>
       </c>
-      <c r="E132" s="3" t="inlineStr">
-        <is>
-          <t>32009С_3D Аналог 3D LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.5 L=12, нерж. сталь, V.2</t>
-        </is>
-      </c>
-      <c r="F132" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G132" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H132" s="3" t="inlineStr">
-        <is>
-          <t>Версия 2</t>
-        </is>
-      </c>
-      <c r="I132" s="4" t="n">
-        <v>233</v>
-      </c>
-      <c r="J132" s="4" t="n">
-        <v>10</v>
+      <c r="E132" s="17" t="inlineStr">
+        <is>
+          <t>32013С_3D Аналог 3D LM (собств. разр.) Mis SP (3.75/4.2) D=5 L=13.5, нерж. сталь, V.1</t>
+        </is>
+      </c>
+      <c r="F132" s="18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G132" s="18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H132" s="18" t="inlineStr">
+        <is>
+          <t>Версия 1</t>
+        </is>
+      </c>
+      <c r="I132" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="J132" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="K132" s="4" t="n">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="L132" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M132" s="4" t="n">
         <v>0</v>
@@ -8539,16 +8550,16 @@
         <v>0</v>
       </c>
       <c r="O132" s="4" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="P132" s="4" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="Q132" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R132" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S132" s="5" t="inlineStr"/>
       <c r="T132" s="6" t="n"/>
@@ -8556,28 +8567,80 @@
       <c r="V132" s="4" t="n"/>
     </row>
     <row r="133">
-      <c r="A133" s="7" t="n"/>
-      <c r="B133" s="7" t="n"/>
-      <c r="C133" s="7" t="n"/>
-      <c r="D133" s="7" t="n"/>
-      <c r="E133" s="7" t="n"/>
-      <c r="F133" s="7" t="n"/>
-      <c r="G133" s="7" t="n"/>
-      <c r="H133" s="7" t="n"/>
-      <c r="I133" s="7" t="n"/>
-      <c r="J133" s="7" t="n"/>
-      <c r="K133" s="7" t="n"/>
-      <c r="L133" s="7" t="n"/>
-      <c r="M133" s="7" t="n"/>
-      <c r="N133" s="7" t="n"/>
-      <c r="O133" s="7" t="n"/>
-      <c r="P133" s="7" t="n"/>
-      <c r="Q133" s="7" t="n"/>
-      <c r="R133" s="7" t="n"/>
-      <c r="S133" s="7" t="n"/>
-      <c r="T133" s="8" t="n"/>
-      <c r="U133" s="8" t="n"/>
-      <c r="V133" s="7" t="n"/>
+      <c r="A133" s="3" t="inlineStr">
+        <is>
+          <t>Аналог 3D</t>
+        </is>
+      </c>
+      <c r="B133" s="3" t="inlineStr">
+        <is>
+          <t>Разработка Lenmiriot</t>
+        </is>
+      </c>
+      <c r="C133" s="3" t="inlineStr">
+        <is>
+          <t>Mis</t>
+        </is>
+      </c>
+      <c r="D133" s="3" t="inlineStr">
+        <is>
+          <t>WP</t>
+        </is>
+      </c>
+      <c r="E133" s="13" t="inlineStr">
+        <is>
+          <t>32014С_3D Аналог 3D LM (собств. разр.) Mis WP (5.0/6.0) D=4.7 L=12, нерж. сталь, V.1</t>
+        </is>
+      </c>
+      <c r="F133" s="14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G133" s="14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H133" s="14" t="inlineStr">
+        <is>
+          <t>Версия 1</t>
+        </is>
+      </c>
+      <c r="I133" s="15" t="n">
+        <v>186</v>
+      </c>
+      <c r="J133" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" s="4" t="n">
+        <v>108</v>
+      </c>
+      <c r="L133" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="P133" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q133" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R133" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S133" s="5" t="inlineStr"/>
+      <c r="T133" s="6" t="n"/>
+      <c r="U133" s="6" t="n"/>
+      <c r="V133" s="4" t="n"/>
     </row>
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
@@ -8592,42 +8655,42 @@
       </c>
       <c r="C134" s="3" t="inlineStr">
         <is>
-          <t>Nobel Active</t>
+          <t>Mis</t>
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr">
         <is>
-          <t>NP</t>
-        </is>
-      </c>
-      <c r="E134" s="23" t="inlineStr">
-        <is>
-          <t>32004С_3D Аналог 3D LM (собств. разр.) Nobel Active NP (3.5) D=3.5 L=12, нерж. сталь, V.2</t>
-        </is>
-      </c>
-      <c r="F134" s="14" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G134" s="14" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H134" s="14" t="inlineStr">
+          <t>WP</t>
+        </is>
+      </c>
+      <c r="E134" s="17" t="inlineStr">
+        <is>
+          <t>32014С_3D Аналог 3D LM (собств. разр.) Mis WP (5.0/6.0) D=4.7 L=12, нерж. сталь, V.2</t>
+        </is>
+      </c>
+      <c r="F134" s="18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G134" s="18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H134" s="18" t="inlineStr">
         <is>
           <t>Версия 2</t>
         </is>
       </c>
-      <c r="I134" s="24" t="n">
-        <v>20</v>
-      </c>
-      <c r="J134" s="25" t="n">
-        <v>42</v>
+      <c r="I134" s="19" t="n">
+        <v>207</v>
+      </c>
+      <c r="J134" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="K134" s="4" t="n">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="L134" s="4" t="n">
         <v>0</v>
@@ -8636,19 +8699,19 @@
         <v>0</v>
       </c>
       <c r="N134" s="4" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O134" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P134" s="4" t="n">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="Q134" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R134" s="4" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="S134" s="5" t="inlineStr"/>
       <c r="T134" s="6" t="n"/>
@@ -8656,80 +8719,28 @@
       <c r="V134" s="4" t="n"/>
     </row>
     <row r="135">
-      <c r="A135" s="3" t="inlineStr">
-        <is>
-          <t>Аналог 3D</t>
-        </is>
-      </c>
-      <c r="B135" s="3" t="inlineStr">
-        <is>
-          <t>Разработка Lenmiriot</t>
-        </is>
-      </c>
-      <c r="C135" s="3" t="inlineStr">
-        <is>
-          <t>Nobel Active</t>
-        </is>
-      </c>
-      <c r="D135" s="3" t="inlineStr">
-        <is>
-          <t>NP</t>
-        </is>
-      </c>
-      <c r="E135" s="17" t="inlineStr">
-        <is>
-          <t>32004С_3D Аналог 3D LM (собств. разр.) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=4 L=12.5, нерж. сталь, V.1</t>
-        </is>
-      </c>
-      <c r="F135" s="18" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G135" s="18" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H135" s="18" t="inlineStr">
-        <is>
-          <t>Версия 1</t>
-        </is>
-      </c>
-      <c r="I135" s="19" t="n">
-        <v>23</v>
-      </c>
-      <c r="J135" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="L135" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M135" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N135" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O135" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P135" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q135" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R135" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S135" s="5" t="inlineStr"/>
-      <c r="T135" s="6" t="n"/>
-      <c r="U135" s="6" t="n"/>
-      <c r="V135" s="4" t="n"/>
+      <c r="A135" s="7" t="n"/>
+      <c r="B135" s="7" t="n"/>
+      <c r="C135" s="7" t="n"/>
+      <c r="D135" s="7" t="n"/>
+      <c r="E135" s="7" t="n"/>
+      <c r="F135" s="7" t="n"/>
+      <c r="G135" s="7" t="n"/>
+      <c r="H135" s="7" t="n"/>
+      <c r="I135" s="7" t="n"/>
+      <c r="J135" s="7" t="n"/>
+      <c r="K135" s="7" t="n"/>
+      <c r="L135" s="7" t="n"/>
+      <c r="M135" s="7" t="n"/>
+      <c r="N135" s="7" t="n"/>
+      <c r="O135" s="7" t="n"/>
+      <c r="P135" s="7" t="n"/>
+      <c r="Q135" s="7" t="n"/>
+      <c r="R135" s="7" t="n"/>
+      <c r="S135" s="7" t="n"/>
+      <c r="T135" s="8" t="n"/>
+      <c r="U135" s="8" t="n"/>
+      <c r="V135" s="7" t="n"/>
     </row>
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
@@ -8744,42 +8755,42 @@
       </c>
       <c r="C136" s="3" t="inlineStr">
         <is>
-          <t>Nobel Active</t>
+          <t>Mis C1 (Conical)</t>
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr">
         <is>
-          <t>RP</t>
-        </is>
-      </c>
-      <c r="E136" s="13" t="inlineStr">
-        <is>
-          <t>32005С_3D Аналог 3D LM (собств. разр.) Nobel Active RP (4.5) D=4 L=12, нерж. сталь, V.2</t>
-        </is>
-      </c>
-      <c r="F136" s="14" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G136" s="14" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H136" s="14" t="inlineStr">
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="E136" s="3" t="inlineStr">
+        <is>
+          <t>32009С_3D Аналог 3D LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.5 L=12, нерж. сталь, V.2</t>
+        </is>
+      </c>
+      <c r="F136" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G136" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H136" s="3" t="inlineStr">
         <is>
           <t>Версия 2</t>
         </is>
       </c>
-      <c r="I136" s="15" t="n">
-        <v>555</v>
-      </c>
-      <c r="J136" s="16" t="n">
-        <v>53</v>
+      <c r="I136" s="4" t="n">
+        <v>253</v>
+      </c>
+      <c r="J136" s="4" t="n">
+        <v>10</v>
       </c>
       <c r="K136" s="4" t="n">
-        <v>392</v>
+        <v>147</v>
       </c>
       <c r="L136" s="4" t="n">
         <v>0</v>
@@ -8788,19 +8799,19 @@
         <v>0</v>
       </c>
       <c r="N136" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O136" s="4" t="n">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="P136" s="4" t="n">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="Q136" s="4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R136" s="4" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="S136" s="5" t="inlineStr"/>
       <c r="T136" s="6" t="n"/>
@@ -8808,104 +8819,104 @@
       <c r="V136" s="4" t="n"/>
     </row>
     <row r="137">
-      <c r="A137" s="3" t="inlineStr">
+      <c r="A137" s="7" t="n"/>
+      <c r="B137" s="7" t="n"/>
+      <c r="C137" s="7" t="n"/>
+      <c r="D137" s="7" t="n"/>
+      <c r="E137" s="7" t="n"/>
+      <c r="F137" s="7" t="n"/>
+      <c r="G137" s="7" t="n"/>
+      <c r="H137" s="7" t="n"/>
+      <c r="I137" s="7" t="n"/>
+      <c r="J137" s="7" t="n"/>
+      <c r="K137" s="7" t="n"/>
+      <c r="L137" s="7" t="n"/>
+      <c r="M137" s="7" t="n"/>
+      <c r="N137" s="7" t="n"/>
+      <c r="O137" s="7" t="n"/>
+      <c r="P137" s="7" t="n"/>
+      <c r="Q137" s="7" t="n"/>
+      <c r="R137" s="7" t="n"/>
+      <c r="S137" s="7" t="n"/>
+      <c r="T137" s="8" t="n"/>
+      <c r="U137" s="8" t="n"/>
+      <c r="V137" s="7" t="n"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="inlineStr">
         <is>
           <t>Аналог 3D</t>
         </is>
       </c>
-      <c r="B137" s="3" t="inlineStr">
+      <c r="B138" s="3" t="inlineStr">
         <is>
           <t>Разработка Lenmiriot</t>
         </is>
       </c>
-      <c r="C137" s="3" t="inlineStr">
+      <c r="C138" s="3" t="inlineStr">
         <is>
           <t>Nobel Active</t>
         </is>
       </c>
-      <c r="D137" s="3" t="inlineStr">
-        <is>
-          <t>RP</t>
-        </is>
-      </c>
-      <c r="E137" s="26" t="inlineStr">
-        <is>
-          <t>32005С_3D Аналог 3D LM (собств. разр.) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) D=4 L=10.5, нерж. сталь, V.1</t>
-        </is>
-      </c>
-      <c r="F137" s="18" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G137" s="18" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H137" s="18" t="inlineStr">
-        <is>
-          <t>Версия 1</t>
-        </is>
-      </c>
-      <c r="I137" s="27" t="n">
+      <c r="D138" s="3" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
+      <c r="E138" s="23" t="inlineStr">
+        <is>
+          <t>32004С_3D Аналог 3D LM (собств. разр.) Nobel Active NP (3.5) D=3.5 L=12, нерж. сталь, V.2</t>
+        </is>
+      </c>
+      <c r="F138" s="14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G138" s="14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H138" s="14" t="inlineStr">
+        <is>
+          <t>Версия 2</t>
+        </is>
+      </c>
+      <c r="I138" s="24" t="n">
+        <v>21</v>
+      </c>
+      <c r="J138" s="25" t="n">
+        <v>43</v>
+      </c>
+      <c r="K138" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="L138" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="O138" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P138" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q138" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J137" s="28" t="n">
-        <v>2</v>
-      </c>
-      <c r="K137" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L137" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M137" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N137" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O137" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P137" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q137" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R137" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="S137" s="5" t="inlineStr"/>
-      <c r="T137" s="6" t="n"/>
-      <c r="U137" s="6" t="n"/>
-      <c r="V137" s="4" t="n"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="7" t="n"/>
-      <c r="B138" s="7" t="n"/>
-      <c r="C138" s="7" t="n"/>
-      <c r="D138" s="7" t="n"/>
-      <c r="E138" s="7" t="n"/>
-      <c r="F138" s="7" t="n"/>
-      <c r="G138" s="7" t="n"/>
-      <c r="H138" s="7" t="n"/>
-      <c r="I138" s="7" t="n"/>
-      <c r="J138" s="7" t="n"/>
-      <c r="K138" s="7" t="n"/>
-      <c r="L138" s="7" t="n"/>
-      <c r="M138" s="7" t="n"/>
-      <c r="N138" s="7" t="n"/>
-      <c r="O138" s="7" t="n"/>
-      <c r="P138" s="7" t="n"/>
-      <c r="Q138" s="7" t="n"/>
-      <c r="R138" s="7" t="n"/>
-      <c r="S138" s="7" t="n"/>
-      <c r="T138" s="8" t="n"/>
-      <c r="U138" s="8" t="n"/>
-      <c r="V138" s="7" t="n"/>
+      <c r="R138" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="S138" s="5" t="inlineStr"/>
+      <c r="T138" s="6" t="n"/>
+      <c r="U138" s="6" t="n"/>
+      <c r="V138" s="4" t="n"/>
     </row>
     <row r="139">
       <c r="A139" s="3" t="inlineStr">
@@ -8920,92 +8931,146 @@
       </c>
       <c r="C139" s="3" t="inlineStr">
         <is>
-          <t>Nobel Multi-Unit</t>
+          <t>Nobel Active</t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
         <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E139" s="3" t="inlineStr">
-        <is>
-          <t>32143_3DV2 Аналог 3D LM (собств. разр.) Nobel Multi-Unit, LENMIRIOT Multi-Unit D=4.8 L=14.2, нерж. сталь, V.2</t>
-        </is>
-      </c>
-      <c r="F139" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G139" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H139" s="3" t="inlineStr">
-        <is>
-          <t>Версия 2</t>
-        </is>
-      </c>
-      <c r="I139" s="4" t="n">
-        <v>295</v>
-      </c>
-      <c r="J139" s="4" t="n">
-        <v>109</v>
-      </c>
-      <c r="K139" s="4" t="n">
-        <v>192</v>
+          <t>NP</t>
+        </is>
+      </c>
+      <c r="E139" s="26" t="inlineStr">
+        <is>
+          <t>32004С_3D Аналог 3D LM (собств. разр.) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=4 L=12.5, нерж. сталь, V.1</t>
+        </is>
+      </c>
+      <c r="F139" s="18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G139" s="18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H139" s="18" t="inlineStr">
+        <is>
+          <t>Версия 1</t>
+        </is>
+      </c>
+      <c r="I139" s="19" t="n">
+        <v>17</v>
+      </c>
+      <c r="J139" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="K139" s="10" t="n">
+        <v>8</v>
       </c>
       <c r="L139" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="M139" s="4" t="n">
-        <v>4</v>
+      <c r="M139" s="10" t="n">
+        <v>6</v>
       </c>
       <c r="N139" s="4" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="O139" s="4" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="P139" s="4" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="Q139" s="4" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="R139" s="4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="S139" s="5" t="inlineStr"/>
       <c r="T139" s="6" t="n"/>
       <c r="U139" s="6" t="n"/>
-      <c r="V139" s="4" t="n"/>
+      <c r="V139" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="140">
-      <c r="A140" s="7" t="n"/>
-      <c r="B140" s="7" t="n"/>
-      <c r="C140" s="7" t="n"/>
-      <c r="D140" s="7" t="n"/>
-      <c r="E140" s="7" t="n"/>
-      <c r="F140" s="7" t="n"/>
-      <c r="G140" s="7" t="n"/>
-      <c r="H140" s="7" t="n"/>
-      <c r="I140" s="7" t="n"/>
-      <c r="J140" s="7" t="n"/>
-      <c r="K140" s="7" t="n"/>
-      <c r="L140" s="7" t="n"/>
-      <c r="M140" s="7" t="n"/>
-      <c r="N140" s="7" t="n"/>
-      <c r="O140" s="7" t="n"/>
-      <c r="P140" s="7" t="n"/>
-      <c r="Q140" s="7" t="n"/>
-      <c r="R140" s="7" t="n"/>
-      <c r="S140" s="7" t="n"/>
-      <c r="T140" s="8" t="n"/>
-      <c r="U140" s="8" t="n"/>
-      <c r="V140" s="7" t="n"/>
+      <c r="A140" s="3" t="inlineStr">
+        <is>
+          <t>Аналог 3D</t>
+        </is>
+      </c>
+      <c r="B140" s="3" t="inlineStr">
+        <is>
+          <t>Разработка Lenmiriot</t>
+        </is>
+      </c>
+      <c r="C140" s="3" t="inlineStr">
+        <is>
+          <t>Nobel Active</t>
+        </is>
+      </c>
+      <c r="D140" s="3" t="inlineStr">
+        <is>
+          <t>RP</t>
+        </is>
+      </c>
+      <c r="E140" s="13" t="inlineStr">
+        <is>
+          <t>32005С_3D Аналог 3D LM (собств. разр.) Nobel Active RP (4.5) D=4 L=12, нерж. сталь, V.2</t>
+        </is>
+      </c>
+      <c r="F140" s="14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G140" s="14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H140" s="14" t="inlineStr">
+        <is>
+          <t>Версия 2</t>
+        </is>
+      </c>
+      <c r="I140" s="15" t="n">
+        <v>471</v>
+      </c>
+      <c r="J140" s="16" t="n">
+        <v>76</v>
+      </c>
+      <c r="K140" s="4" t="n">
+        <v>323</v>
+      </c>
+      <c r="L140" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="N140" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="O140" s="4" t="n">
+        <v>117</v>
+      </c>
+      <c r="P140" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q140" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="R140" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="S140" s="5" t="inlineStr"/>
+      <c r="T140" s="6" t="n"/>
+      <c r="U140" s="6" t="n"/>
+      <c r="V140" s="4" t="n"/>
     </row>
     <row r="141">
       <c r="A141" s="3" t="inlineStr">
@@ -9020,42 +9085,42 @@
       </c>
       <c r="C141" s="3" t="inlineStr">
         <is>
-          <t>Nobel Replace Select</t>
+          <t>Nobel Active</t>
         </is>
       </c>
       <c r="D141" s="3" t="inlineStr">
         <is>
-          <t>3.5</t>
-        </is>
-      </c>
-      <c r="E141" s="13" t="inlineStr">
-        <is>
-          <t>32016С_3D Аналог 3D LM (собств. разр.) Nobel Replace Select 3.5 D=3.5 L=11, нерж. сталь, V.1</t>
-        </is>
-      </c>
-      <c r="F141" s="14" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G141" s="14" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H141" s="14" t="inlineStr">
+          <t>RP</t>
+        </is>
+      </c>
+      <c r="E141" s="27" t="inlineStr">
+        <is>
+          <t>32005С_3D Аналог 3D LM (собств. разр.) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) D=4 L=10.5, нерж. сталь, V.1</t>
+        </is>
+      </c>
+      <c r="F141" s="18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G141" s="18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H141" s="18" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I141" s="15" t="n">
-        <v>161</v>
-      </c>
-      <c r="J141" s="16" t="n">
-        <v>0</v>
+      <c r="I141" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J141" s="29" t="n">
+        <v>2</v>
       </c>
       <c r="K141" s="4" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="L141" s="4" t="n">
         <v>0</v>
@@ -9067,16 +9132,16 @@
         <v>0</v>
       </c>
       <c r="O141" s="4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P141" s="4" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Q141" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R141" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S141" s="5" t="inlineStr"/>
       <c r="T141" s="6" t="n"/>
@@ -9084,80 +9149,28 @@
       <c r="V141" s="4" t="n"/>
     </row>
     <row r="142">
-      <c r="A142" s="3" t="inlineStr">
-        <is>
-          <t>Аналог 3D</t>
-        </is>
-      </c>
-      <c r="B142" s="3" t="inlineStr">
-        <is>
-          <t>Разработка Lenmiriot</t>
-        </is>
-      </c>
-      <c r="C142" s="3" t="inlineStr">
-        <is>
-          <t>Nobel Replace Select</t>
-        </is>
-      </c>
-      <c r="D142" s="3" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
-      <c r="E142" s="17" t="inlineStr">
-        <is>
-          <t>32016С_3D Аналог 3D LM (собств. разр.) Nobel Replace Select 3.5 D=3.5 L=12, нерж. сталь, V.2</t>
-        </is>
-      </c>
-      <c r="F142" s="18" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G142" s="18" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H142" s="18" t="inlineStr">
-        <is>
-          <t>Версия 2</t>
-        </is>
-      </c>
-      <c r="I142" s="19" t="n">
-        <v>328</v>
-      </c>
-      <c r="J142" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="K142" s="4" t="n">
-        <v>231</v>
-      </c>
-      <c r="L142" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M142" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N142" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O142" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="P142" s="4" t="n">
-        <v>67</v>
-      </c>
-      <c r="Q142" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R142" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S142" s="5" t="inlineStr"/>
-      <c r="T142" s="6" t="n"/>
-      <c r="U142" s="6" t="n"/>
-      <c r="V142" s="4" t="n"/>
+      <c r="A142" s="7" t="n"/>
+      <c r="B142" s="7" t="n"/>
+      <c r="C142" s="7" t="n"/>
+      <c r="D142" s="7" t="n"/>
+      <c r="E142" s="7" t="n"/>
+      <c r="F142" s="7" t="n"/>
+      <c r="G142" s="7" t="n"/>
+      <c r="H142" s="7" t="n"/>
+      <c r="I142" s="7" t="n"/>
+      <c r="J142" s="7" t="n"/>
+      <c r="K142" s="7" t="n"/>
+      <c r="L142" s="7" t="n"/>
+      <c r="M142" s="7" t="n"/>
+      <c r="N142" s="7" t="n"/>
+      <c r="O142" s="7" t="n"/>
+      <c r="P142" s="7" t="n"/>
+      <c r="Q142" s="7" t="n"/>
+      <c r="R142" s="7" t="n"/>
+      <c r="S142" s="7" t="n"/>
+      <c r="T142" s="8" t="n"/>
+      <c r="U142" s="8" t="n"/>
+      <c r="V142" s="7" t="n"/>
     </row>
     <row r="143">
       <c r="A143" s="3" t="inlineStr">
@@ -9172,63 +9185,63 @@
       </c>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t>Nobel Replace Select</t>
+          <t>Nobel Multi-Unit</t>
         </is>
       </c>
       <c r="D143" s="3" t="inlineStr">
         <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="E143" s="13" t="inlineStr">
-        <is>
-          <t>32017С_3D Аналог 3D LM (собств. разр.) Nobel Replace Select 4.3 D=4.3 L=12, нерж. сталь, V.2</t>
-        </is>
-      </c>
-      <c r="F143" s="14" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G143" s="14" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H143" s="14" t="inlineStr">
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E143" s="3" t="inlineStr">
+        <is>
+          <t>32143_3DV2 Аналог 3D LM (собств. разр.) Nobel Multi-Unit, LENMIRIOT Multi-Unit D=4.8 L=14.2, нерж. сталь, V.2</t>
+        </is>
+      </c>
+      <c r="F143" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G143" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H143" s="3" t="inlineStr">
         <is>
           <t>Версия 2</t>
         </is>
       </c>
-      <c r="I143" s="15" t="n">
-        <v>258</v>
-      </c>
-      <c r="J143" s="16" t="n">
-        <v>12</v>
+      <c r="I143" s="4" t="n">
+        <v>315</v>
+      </c>
+      <c r="J143" s="4" t="n">
+        <v>109</v>
       </c>
       <c r="K143" s="4" t="n">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="L143" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M143" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N143" s="4" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="O143" s="4" t="n">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="P143" s="4" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="Q143" s="4" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="R143" s="4" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="S143" s="5" t="inlineStr"/>
       <c r="T143" s="6" t="n"/>
@@ -9236,104 +9249,104 @@
       <c r="V143" s="4" t="n"/>
     </row>
     <row r="144">
-      <c r="A144" s="3" t="inlineStr">
+      <c r="A144" s="7" t="n"/>
+      <c r="B144" s="7" t="n"/>
+      <c r="C144" s="7" t="n"/>
+      <c r="D144" s="7" t="n"/>
+      <c r="E144" s="7" t="n"/>
+      <c r="F144" s="7" t="n"/>
+      <c r="G144" s="7" t="n"/>
+      <c r="H144" s="7" t="n"/>
+      <c r="I144" s="7" t="n"/>
+      <c r="J144" s="7" t="n"/>
+      <c r="K144" s="7" t="n"/>
+      <c r="L144" s="7" t="n"/>
+      <c r="M144" s="7" t="n"/>
+      <c r="N144" s="7" t="n"/>
+      <c r="O144" s="7" t="n"/>
+      <c r="P144" s="7" t="n"/>
+      <c r="Q144" s="7" t="n"/>
+      <c r="R144" s="7" t="n"/>
+      <c r="S144" s="7" t="n"/>
+      <c r="T144" s="8" t="n"/>
+      <c r="U144" s="8" t="n"/>
+      <c r="V144" s="7" t="n"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="3" t="inlineStr">
         <is>
           <t>Аналог 3D</t>
         </is>
       </c>
-      <c r="B144" s="3" t="inlineStr">
+      <c r="B145" s="3" t="inlineStr">
         <is>
           <t>Разработка Lenmiriot</t>
         </is>
       </c>
-      <c r="C144" s="3" t="inlineStr">
+      <c r="C145" s="3" t="inlineStr">
         <is>
           <t>Nobel Replace Select</t>
         </is>
       </c>
-      <c r="D144" s="3" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="E144" s="17" t="inlineStr">
-        <is>
-          <t>32017С_3D Аналог 3D LM (собств. разр.) Nobel Replace Select 4.3 D=5 L=13.5, нерж. сталь, V.1</t>
-        </is>
-      </c>
-      <c r="F144" s="18" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G144" s="18" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H144" s="18" t="inlineStr">
+      <c r="D145" s="3" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="E145" s="13" t="inlineStr">
+        <is>
+          <t>32016С_3D Аналог 3D LM (собств. разр.) Nobel Replace Select 3.5 D=3.5 L=11, нерж. сталь, V.1</t>
+        </is>
+      </c>
+      <c r="F145" s="14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G145" s="14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H145" s="14" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I144" s="19" t="n">
-        <v>45</v>
-      </c>
-      <c r="J144" s="20" t="n">
+      <c r="I145" s="15" t="n">
+        <v>160</v>
+      </c>
+      <c r="J145" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="K144" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="L144" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M144" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N144" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O144" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P144" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q144" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R144" s="4" t="n">
+      <c r="K145" s="4" t="n">
+        <v>122</v>
+      </c>
+      <c r="L145" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="P145" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q145" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R145" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="S144" s="5" t="inlineStr"/>
-      <c r="T144" s="6" t="n"/>
-      <c r="U144" s="6" t="n"/>
-      <c r="V144" s="4" t="n"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="7" t="n"/>
-      <c r="B145" s="7" t="n"/>
-      <c r="C145" s="7" t="n"/>
-      <c r="D145" s="7" t="n"/>
-      <c r="E145" s="7" t="n"/>
-      <c r="F145" s="7" t="n"/>
-      <c r="G145" s="7" t="n"/>
-      <c r="H145" s="7" t="n"/>
-      <c r="I145" s="7" t="n"/>
-      <c r="J145" s="7" t="n"/>
-      <c r="K145" s="7" t="n"/>
-      <c r="L145" s="7" t="n"/>
-      <c r="M145" s="7" t="n"/>
-      <c r="N145" s="7" t="n"/>
-      <c r="O145" s="7" t="n"/>
-      <c r="P145" s="7" t="n"/>
-      <c r="Q145" s="7" t="n"/>
-      <c r="R145" s="7" t="n"/>
-      <c r="S145" s="7" t="n"/>
-      <c r="T145" s="8" t="n"/>
-      <c r="U145" s="8" t="n"/>
-      <c r="V145" s="7" t="n"/>
+      <c r="S145" s="5" t="inlineStr"/>
+      <c r="T145" s="6" t="n"/>
+      <c r="U145" s="6" t="n"/>
+      <c r="V145" s="4" t="n"/>
     </row>
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
@@ -9348,69 +9361,65 @@
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>Osstem Implant</t>
+          <t>Nobel Replace Select</t>
         </is>
       </c>
       <c r="D146" s="3" t="inlineStr">
         <is>
-          <t>Mini</t>
-        </is>
-      </c>
-      <c r="E146" s="21" t="inlineStr">
-        <is>
-          <t>32002С_3D Аналог 3D LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12, нерж. сталь, V.2</t>
-        </is>
-      </c>
-      <c r="F146" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G146" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H146" s="3" t="inlineStr">
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="E146" s="17" t="inlineStr">
+        <is>
+          <t>32016С_3D Аналог 3D LM (собств. разр.) Nobel Replace Select 3.5 D=3.5 L=12, нерж. сталь, V.2</t>
+        </is>
+      </c>
+      <c r="F146" s="18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G146" s="18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H146" s="18" t="inlineStr">
         <is>
           <t>Версия 2</t>
         </is>
       </c>
-      <c r="I146" s="22" t="n">
-        <v>74</v>
-      </c>
-      <c r="J146" s="22" t="n">
-        <v>80</v>
+      <c r="I146" s="19" t="n">
+        <v>328</v>
+      </c>
+      <c r="J146" s="20" t="n">
+        <v>2</v>
       </c>
       <c r="K146" s="4" t="n">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="L146" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M146" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N146" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O146" s="4" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="P146" s="4" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="Q146" s="4" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="R146" s="4" t="n">
-        <v>27</v>
-      </c>
-      <c r="S146" s="5" t="inlineStr">
-        <is>
-          <t>31.01-01.02</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S146" s="5" t="inlineStr"/>
       <c r="T146" s="6" t="n"/>
       <c r="U146" s="6" t="n"/>
       <c r="V146" s="4" t="n"/>
@@ -9428,63 +9437,63 @@
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>Osstem Implant</t>
+          <t>Nobel Replace Select</t>
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr">
         <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="E147" s="3" t="inlineStr">
-        <is>
-          <t>32003С_3D Аналог 3D LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=12, нерж. сталь, V.2</t>
-        </is>
-      </c>
-      <c r="F147" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G147" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H147" s="3" t="inlineStr">
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="E147" s="13" t="inlineStr">
+        <is>
+          <t>32017С_3D Аналог 3D LM (собств. разр.) Nobel Replace Select 4.3 D=4.3 L=12, нерж. сталь, V.2</t>
+        </is>
+      </c>
+      <c r="F147" s="14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G147" s="14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H147" s="14" t="inlineStr">
         <is>
           <t>Версия 2</t>
         </is>
       </c>
-      <c r="I147" s="4" t="n">
-        <v>655</v>
-      </c>
-      <c r="J147" s="4" t="n">
-        <v>314</v>
+      <c r="I147" s="15" t="n">
+        <v>258</v>
+      </c>
+      <c r="J147" s="16" t="n">
+        <v>13</v>
       </c>
       <c r="K147" s="4" t="n">
-        <v>504</v>
+        <v>186</v>
       </c>
       <c r="L147" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M147" s="4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N147" s="4" t="n">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="O147" s="4" t="n">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="P147" s="4" t="n">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="Q147" s="4" t="n">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="R147" s="4" t="n">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="S147" s="5" t="inlineStr"/>
       <c r="T147" s="6" t="n"/>
@@ -9492,69 +9501,327 @@
       <c r="V147" s="4" t="n"/>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n"/>
-      <c r="B148" s="2" t="n"/>
-      <c r="C148" s="2" t="n"/>
-      <c r="D148" s="2" t="n"/>
-      <c r="E148" s="2" t="inlineStr">
+      <c r="A148" s="3" t="inlineStr">
+        <is>
+          <t>Аналог 3D</t>
+        </is>
+      </c>
+      <c r="B148" s="3" t="inlineStr">
+        <is>
+          <t>Разработка Lenmiriot</t>
+        </is>
+      </c>
+      <c r="C148" s="3" t="inlineStr">
+        <is>
+          <t>Nobel Replace Select</t>
+        </is>
+      </c>
+      <c r="D148" s="3" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="E148" s="17" t="inlineStr">
+        <is>
+          <t>32017С_3D Аналог 3D LM (собств. разр.) Nobel Replace Select 4.3 D=5 L=13.5, нерж. сталь, V.1</t>
+        </is>
+      </c>
+      <c r="F148" s="18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G148" s="18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H148" s="18" t="inlineStr">
+        <is>
+          <t>Версия 1</t>
+        </is>
+      </c>
+      <c r="I148" s="19" t="n">
+        <v>45</v>
+      </c>
+      <c r="J148" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="L148" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O148" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P148" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q148" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R148" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S148" s="5" t="inlineStr"/>
+      <c r="T148" s="6" t="n"/>
+      <c r="U148" s="6" t="n"/>
+      <c r="V148" s="4" t="n"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="7" t="n"/>
+      <c r="B149" s="7" t="n"/>
+      <c r="C149" s="7" t="n"/>
+      <c r="D149" s="7" t="n"/>
+      <c r="E149" s="7" t="n"/>
+      <c r="F149" s="7" t="n"/>
+      <c r="G149" s="7" t="n"/>
+      <c r="H149" s="7" t="n"/>
+      <c r="I149" s="7" t="n"/>
+      <c r="J149" s="7" t="n"/>
+      <c r="K149" s="7" t="n"/>
+      <c r="L149" s="7" t="n"/>
+      <c r="M149" s="7" t="n"/>
+      <c r="N149" s="7" t="n"/>
+      <c r="O149" s="7" t="n"/>
+      <c r="P149" s="7" t="n"/>
+      <c r="Q149" s="7" t="n"/>
+      <c r="R149" s="7" t="n"/>
+      <c r="S149" s="7" t="n"/>
+      <c r="T149" s="8" t="n"/>
+      <c r="U149" s="8" t="n"/>
+      <c r="V149" s="7" t="n"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="3" t="inlineStr">
+        <is>
+          <t>Аналог 3D</t>
+        </is>
+      </c>
+      <c r="B150" s="3" t="inlineStr">
+        <is>
+          <t>Разработка Lenmiriot</t>
+        </is>
+      </c>
+      <c r="C150" s="3" t="inlineStr">
+        <is>
+          <t>Osstem Implant</t>
+        </is>
+      </c>
+      <c r="D150" s="3" t="inlineStr">
+        <is>
+          <t>Mini</t>
+        </is>
+      </c>
+      <c r="E150" s="21" t="inlineStr">
+        <is>
+          <t>32002С_3D Аналог 3D LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12, нерж. сталь, V.2</t>
+        </is>
+      </c>
+      <c r="F150" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G150" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H150" s="3" t="inlineStr">
+        <is>
+          <t>Версия 2</t>
+        </is>
+      </c>
+      <c r="I150" s="22" t="n">
+        <v>59</v>
+      </c>
+      <c r="J150" s="22" t="n">
+        <v>90</v>
+      </c>
+      <c r="K150" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="L150" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N150" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="O150" s="4" t="n">
+        <v>52</v>
+      </c>
+      <c r="P150" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q150" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="R150" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="S150" s="5" t="inlineStr"/>
+      <c r="T150" s="6" t="n">
+        <v>225</v>
+      </c>
+      <c r="U150" s="6" t="n"/>
+      <c r="V150" s="4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="3" t="inlineStr">
+        <is>
+          <t>Аналог 3D</t>
+        </is>
+      </c>
+      <c r="B151" s="3" t="inlineStr">
+        <is>
+          <t>Разработка Lenmiriot</t>
+        </is>
+      </c>
+      <c r="C151" s="3" t="inlineStr">
+        <is>
+          <t>Osstem Implant</t>
+        </is>
+      </c>
+      <c r="D151" s="3" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="E151" s="3" t="inlineStr">
+        <is>
+          <t>32003С_3D Аналог 3D LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=12, нерж. сталь, V.2</t>
+        </is>
+      </c>
+      <c r="F151" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G151" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H151" s="3" t="inlineStr">
+        <is>
+          <t>Версия 2</t>
+        </is>
+      </c>
+      <c r="I151" s="4" t="n">
+        <v>568</v>
+      </c>
+      <c r="J151" s="4" t="n">
+        <v>361</v>
+      </c>
+      <c r="K151" s="4" t="n">
+        <v>398</v>
+      </c>
+      <c r="L151" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="N151" s="4" t="n">
+        <v>163</v>
+      </c>
+      <c r="O151" s="4" t="n">
+        <v>126</v>
+      </c>
+      <c r="P151" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q151" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="R151" s="4" t="n">
+        <v>96</v>
+      </c>
+      <c r="S151" s="5" t="inlineStr"/>
+      <c r="T151" s="6" t="n"/>
+      <c r="U151" s="6" t="n"/>
+      <c r="V151" s="4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n"/>
+      <c r="B152" s="2" t="n"/>
+      <c r="C152" s="2" t="n"/>
+      <c r="D152" s="2" t="n"/>
+      <c r="E152" s="2" t="inlineStr">
         <is>
           <t>Итого</t>
         </is>
       </c>
-      <c r="F148" s="2" t="n"/>
-      <c r="G148" s="2" t="n"/>
-      <c r="H148" s="2" t="n"/>
-      <c r="I148" s="29">
-        <f>SUM(I7:I147)</f>
+      <c r="F152" s="2" t="n"/>
+      <c r="G152" s="2" t="n"/>
+      <c r="H152" s="2" t="n"/>
+      <c r="I152" s="30">
+        <f>SUM(I7:I151)</f>
         <v/>
       </c>
-      <c r="J148" s="29">
-        <f>SUM(J7:J147)</f>
+      <c r="J152" s="30">
+        <f>SUM(J7:J151)</f>
         <v/>
       </c>
-      <c r="K148" s="29">
-        <f>SUM(K7:K147)</f>
+      <c r="K152" s="30">
+        <f>SUM(K7:K151)</f>
         <v/>
       </c>
-      <c r="L148" s="29">
-        <f>SUM(L7:L147)</f>
+      <c r="L152" s="30">
+        <f>SUM(L7:L151)</f>
         <v/>
       </c>
-      <c r="M148" s="29">
-        <f>SUM(M7:M147)</f>
+      <c r="M152" s="30">
+        <f>SUM(M7:M151)</f>
         <v/>
       </c>
-      <c r="N148" s="29">
-        <f>SUM(N7:N147)</f>
+      <c r="N152" s="30">
+        <f>SUM(N7:N151)</f>
         <v/>
       </c>
-      <c r="O148" s="29">
-        <f>SUM(O7:O147)</f>
+      <c r="O152" s="30">
+        <f>SUM(O7:O151)</f>
         <v/>
       </c>
-      <c r="P148" s="29">
-        <f>SUM(P7:P147)</f>
+      <c r="P152" s="30">
+        <f>SUM(P7:P151)</f>
         <v/>
       </c>
-      <c r="Q148" s="29">
-        <f>SUM(Q7:Q147)</f>
+      <c r="Q152" s="30">
+        <f>SUM(Q7:Q151)</f>
         <v/>
       </c>
-      <c r="R148" s="29">
-        <f>SUM(R7:R147)</f>
+      <c r="R152" s="30">
+        <f>SUM(R7:R151)</f>
         <v/>
       </c>
-      <c r="S148" s="2" t="n"/>
-      <c r="T148" s="29">
-        <f>SUM(T7:T147)</f>
+      <c r="S152" s="2" t="n"/>
+      <c r="T152" s="30">
+        <f>SUM(T7:T151)</f>
         <v/>
       </c>
-      <c r="U148" s="29">
-        <f>SUM(U7:U147)</f>
+      <c r="U152" s="30">
+        <f>SUM(U7:U151)</f>
         <v/>
       </c>
-      <c r="V148" s="29">
-        <f>SUM(V7:V147)</f>
+      <c r="V152" s="30">
+        <f>SUM(V7:V151)</f>
         <v/>
       </c>
     </row>
